--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/MiddleAssignment_TestDesign2_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/MiddleAssignment_TestDesign2_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18C61A-5776-476B-875A-A1FFE88A2F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5281DB-DE50-46C9-AABC-A3200A29D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F114" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F124" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F183" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F193" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F185" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="F195" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F188" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="F198" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F201" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="F211" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G201" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="G211" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F202" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="F212" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G202" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="G212" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F207" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="F217" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G207" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="G217" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F210" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="F220" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F225" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="F235" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F227" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+    <comment ref="F237" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="338">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1520,9 +1520,6 @@
     <t>verify field ‘SMS Verification Code' is displayed when Enter valid phone number and click on ‘Slide to get SMS code’ button</t>
   </si>
   <si>
-    <t>sign up with Phone number</t>
-  </si>
-  <si>
     <t>Verify that show error message if input Full Name 1 special characters</t>
   </si>
   <si>
@@ -1538,7 +1535,40 @@
     <t>Verify that show error message if input Full Name 51 special characters</t>
   </si>
   <si>
-    <t>Verify that account can be created successfully when Enter correct SMS Verification Code and Other mandatory fields and Click on ‘Sign up’ button</t>
+    <t>funtion sign up with Phone number</t>
+  </si>
+  <si>
+    <t>verify that ‘SMS Verification Code' is sent when Enter valid phone number and click on ‘Slide to get SMS code’ button</t>
+  </si>
+  <si>
+    <t>verify that show no erroor message when input valid Verification Code</t>
+  </si>
+  <si>
+    <t>verify that show erroor message when input invalid Verification Code</t>
+  </si>
+  <si>
+    <t>Verify that account can be created successfully when Enter correct SMS Verification Code, Other mandatory fields and Click on ‘Sign up’ button. User can login with recently created user</t>
+  </si>
+  <si>
+    <t>verify that show no erroor message when input valid password</t>
+  </si>
+  <si>
+    <t>verify that show no erroor message when input valid username</t>
+  </si>
+  <si>
+    <t>verify that show erroor message when input invalid phone number</t>
+  </si>
+  <si>
+    <t>verify that show erroor message when input invalid password</t>
+  </si>
+  <si>
+    <t>verify that show erroor message when input invalid username</t>
+  </si>
+  <si>
+    <t>Verify that account can not created successfully when Enter correct SMS Verification Code, Other mandatory fields but not Click on ‘Sign up’ button. User can not login with user is being create</t>
+  </si>
+  <si>
+    <t>Verify that account can not created successfully when Enter incorrect SMS Verification Code, Other mandatory fields and Click on ‘Sign up’ button. User can not login with user is being create</t>
   </si>
 </sst>
 </file>
@@ -3048,6 +3078,39 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="25" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3126,6 +3189,30 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3141,32 +3228,56 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3174,6 +3285,15 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3183,101 +3303,11 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="25" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3718,10 +3748,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$97:$A$173</c:f>
+              <c:f>'User Story 1'!$A$97:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -3767,64 +3797,64 @@
                 <c:pt idx="16">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>91</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
@@ -3839,55 +3869,55 @@
                 <c:pt idx="44">
                   <c:v>104</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="46">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>118</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="65">
@@ -3902,30 +3932,60 @@
                 <c:pt idx="68">
                   <c:v>125</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>126</c:v>
+                </c:pt>
                 <c:pt idx="70">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>130</c:v>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$B$97:$B$173</c:f>
+              <c:f>'User Story 1'!$B$97:$B$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4155,6 +4215,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4288,10 +4378,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$97:$A$173</c:f>
+              <c:f>'User Story 1'!$A$97:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -4337,64 +4427,64 @@
                 <c:pt idx="16">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>91</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
@@ -4409,55 +4499,55 @@
                 <c:pt idx="44">
                   <c:v>104</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="46">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>118</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="65">
@@ -4472,30 +4562,60 @@
                 <c:pt idx="68">
                   <c:v>125</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>126</c:v>
+                </c:pt>
                 <c:pt idx="70">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>130</c:v>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$C$97:$C$173</c:f>
+              <c:f>'User Story 1'!$C$97:$C$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4627,10 +4747,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$97:$A$173</c:f>
+              <c:f>'User Story 1'!$A$97:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -4676,64 +4796,64 @@
                 <c:pt idx="16">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>91</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
@@ -4748,55 +4868,55 @@
                 <c:pt idx="44">
                   <c:v>104</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="46">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>118</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="65">
@@ -4811,30 +4931,60 @@
                 <c:pt idx="68">
                   <c:v>125</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>126</c:v>
+                </c:pt>
                 <c:pt idx="70">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>130</c:v>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$D$97:$D$173</c:f>
+              <c:f>'User Story 1'!$D$97:$D$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4898,10 +5048,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$97:$A$173</c:f>
+              <c:f>'User Story 1'!$A$97:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -4947,64 +5097,64 @@
                 <c:pt idx="16">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>91</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
@@ -5019,55 +5169,55 @@
                 <c:pt idx="44">
                   <c:v>104</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="46">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>118</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="65">
@@ -5082,30 +5232,60 @@
                 <c:pt idx="68">
                   <c:v>125</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>126</c:v>
+                </c:pt>
                 <c:pt idx="70">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>130</c:v>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$E$97:$E$173</c:f>
+              <c:f>'User Story 1'!$E$97:$E$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5115,31 +5295,31 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6432,37 +6612,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="201"/>
+      <c r="C5" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="186" t="s">
+      <c r="B6" s="204"/>
+      <c r="C6" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6474,14 +6654,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="136" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
     </row>
     <row r="9" spans="1:6" s="136" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="137" t="s">
@@ -6564,14 +6744,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="136" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6694,36 +6874,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="197"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="198" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="142"/>
@@ -6743,65 +6923,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="204"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
+      <c r="A10" s="215"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6823,65 +7003,65 @@
       <c r="A14" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="203"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="203"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="214"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="124"/>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="203"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="214"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="124"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="203"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="214"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -6892,40 +7072,40 @@
       <c r="A20" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="214"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B21" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="203"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="214"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="203"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="214"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -6984,11 +7164,11 @@
       <c r="N27" s="61"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="207"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -7065,14 +7245,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -7258,12 +7438,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
       <c r="E2" s="145"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -7424,18 +7604,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="207"/>
+      <c r="B16" s="218"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="208"/>
+      <c r="B17" s="219"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -7462,10 +7642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X227"/>
+  <dimension ref="A1:X237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7480,10 +7660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="213"/>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
+      <c r="A1" s="232"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7492,13 +7672,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="233" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="222"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="225"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7508,9 +7688,9 @@
     <row r="3" spans="1:24" s="1" customFormat="1" ht="23.25">
       <c r="A3" s="47"/>
       <c r="B3" s="170"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="222"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="225"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7521,9 +7701,9 @@
       <c r="A4" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7537,9 +7717,9 @@
       <c r="A5" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7553,11 +7733,11 @@
       <c r="A6" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="228" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7568,11 +7748,11 @@
       <c r="A7" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="227" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7584,9 +7764,9 @@
       <c r="A8" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="217"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7628,15 +7808,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="173">
-        <f>COUNTIF($F$18:$F$49779,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49789,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="66">
-        <f>COUNTIF($G$18:$G$49779,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49789,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="66">
-        <f>COUNTIF($H$18:$H$49779,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49789,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -7645,15 +7825,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="173">
-        <f>COUNTIF($F$18:$F$49499,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49509,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="66">
-        <f>COUNTIF($G$18:$G$49499,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="66">
-        <f>COUNTIF($H$18:$H$49499,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -7662,15 +7842,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="173">
-        <f>COUNTIF($F$18:$F$49499,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49509,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="66">
-        <f>COUNTIF($G$18:$G$49499,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="66">
-        <f>COUNTIF($H$18:$H$49499,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -7684,15 +7864,15 @@
         <v>100</v>
       </c>
       <c r="B14" s="173">
-        <f>COUNTIF($F$18:$F$49499,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49509,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="66">
-        <f>COUNTIF($G$18:$G$49499,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="66">
-        <f>COUNTIF($H$18:$H$49499,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -7706,15 +7886,15 @@
         <v>101</v>
       </c>
       <c r="B15" s="173">
-        <f>COUNTIF($F$18:$F$49499,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49509,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="66">
-        <f>COUNTIF($G$18:$G$49499,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="66">
-        <f>COUNTIF($H$18:$H$49499,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -7729,11 +7909,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="54"/>
-      <c r="F16" s="218" t="s">
+      <c r="F16" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
       <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1">
@@ -7761,11 +7941,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="12.75">
       <c r="A18" s="180"/>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="222" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
       <c r="E18" s="59"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -7774,12 +7954,12 @@
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="250" t="s">
+      <c r="B19" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="252"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
       <c r="F19" s="159"/>
       <c r="G19" s="159"/>
       <c r="H19" s="159"/>
@@ -7803,7 +7983,7 @@
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="30">
       <c r="A21" s="52">
-        <f t="shared" ref="A21:A83" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <f t="shared" ref="A21:A82" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B21" s="169" t="s">
@@ -8110,12 +8290,12 @@
     </row>
     <row r="41" spans="1:9" s="45" customFormat="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="250" t="s">
+      <c r="B41" s="187" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="251"/>
-      <c r="D41" s="251"/>
-      <c r="E41" s="252"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
       <c r="F41" s="159"/>
       <c r="G41" s="159"/>
       <c r="H41" s="159"/>
@@ -8195,12 +8375,12 @@
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1">
       <c r="A46" s="52"/>
-      <c r="B46" s="250" t="s">
+      <c r="B46" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="C46" s="250"/>
-      <c r="D46" s="251"/>
-      <c r="E46" s="253"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="190"/>
       <c r="F46" s="159"/>
       <c r="G46" s="159"/>
       <c r="H46" s="159"/>
@@ -8561,12 +8741,12 @@
     </row>
     <row r="68" spans="1:9" s="45" customFormat="1">
       <c r="A68" s="52"/>
-      <c r="B68" s="250" t="s">
+      <c r="B68" s="187" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="250"/>
-      <c r="D68" s="251"/>
-      <c r="E68" s="251"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="188"/>
+      <c r="E68" s="188"/>
       <c r="F68" s="159"/>
       <c r="G68" s="159"/>
       <c r="H68" s="159"/>
@@ -8614,7 +8794,7 @@
       </c>
       <c r="C71" s="169"/>
       <c r="D71" s="163"/>
-      <c r="E71" s="248" t="s">
+      <c r="E71" s="185" t="s">
         <v>209</v>
       </c>
       <c r="F71" s="159"/>
@@ -8632,7 +8812,7 @@
       </c>
       <c r="C72" s="169"/>
       <c r="D72" s="163"/>
-      <c r="E72" s="249"/>
+      <c r="E72" s="186"/>
       <c r="F72" s="159"/>
       <c r="G72" s="159"/>
       <c r="H72" s="159"/>
@@ -8806,12 +8986,12 @@
     </row>
     <row r="83" spans="1:9" s="45" customFormat="1">
       <c r="A83" s="52"/>
-      <c r="B83" s="250" t="s">
+      <c r="B83" s="187" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="250"/>
-      <c r="D83" s="251"/>
-      <c r="E83" s="251"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
       <c r="F83" s="159"/>
       <c r="G83" s="159"/>
       <c r="H83" s="159"/>
@@ -8819,7 +8999,7 @@
     </row>
     <row r="84" spans="1:9" s="45" customFormat="1" ht="45">
       <c r="A84" s="52">
-        <f t="shared" ref="A84:A147" ca="1" si="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <f t="shared" ref="A84:A156" ca="1" si="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
         <v>55</v>
       </c>
       <c r="B84" s="169" t="s">
@@ -8885,12 +9065,12 @@
     </row>
     <row r="88" spans="1:9" s="45" customFormat="1">
       <c r="A88" s="52"/>
-      <c r="B88" s="250" t="s">
+      <c r="B88" s="187" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="250"/>
-      <c r="D88" s="251"/>
-      <c r="E88" s="253"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="190"/>
       <c r="F88" s="159"/>
       <c r="G88" s="159"/>
       <c r="H88" s="159"/>
@@ -8946,12 +9126,12 @@
     </row>
     <row r="92" spans="1:9" s="45" customFormat="1">
       <c r="A92" s="52"/>
-      <c r="B92" s="250" t="s">
+      <c r="B92" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="C92" s="250"/>
-      <c r="D92" s="251"/>
-      <c r="E92" s="251"/>
+      <c r="C92" s="187"/>
+      <c r="D92" s="188"/>
+      <c r="E92" s="188"/>
       <c r="F92" s="159"/>
       <c r="G92" s="159"/>
       <c r="H92" s="159"/>
@@ -9115,7 +9295,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="169" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C102" s="169"/>
       <c r="D102" s="163"/>
@@ -9131,7 +9311,7 @@
         <v>72</v>
       </c>
       <c r="B103" s="169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C103" s="169"/>
       <c r="D103" s="163"/>
@@ -9147,7 +9327,7 @@
         <v>73</v>
       </c>
       <c r="B104" s="169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C104" s="169"/>
       <c r="D104" s="163"/>
@@ -9163,7 +9343,7 @@
         <v>74</v>
       </c>
       <c r="B105" s="169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C105" s="169"/>
       <c r="D105" s="163"/>
@@ -9179,7 +9359,7 @@
         <v>75</v>
       </c>
       <c r="B106" s="169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C106" s="169"/>
       <c r="D106" s="163"/>
@@ -9191,12 +9371,12 @@
     </row>
     <row r="107" spans="1:9" s="45" customFormat="1">
       <c r="A107" s="52"/>
-      <c r="B107" s="250" t="s">
+      <c r="B107" s="187" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="250"/>
-      <c r="D107" s="251"/>
-      <c r="E107" s="251"/>
+      <c r="C107" s="187"/>
+      <c r="D107" s="188"/>
+      <c r="E107" s="188"/>
       <c r="F107" s="159"/>
       <c r="G107" s="159"/>
       <c r="H107" s="159"/>
@@ -9252,16 +9432,16 @@
     </row>
     <row r="111" spans="1:9" s="45" customFormat="1">
       <c r="A111" s="52"/>
-      <c r="B111" s="250" t="s">
-        <v>321</v>
-      </c>
-      <c r="C111" s="250"/>
-      <c r="D111" s="251"/>
-      <c r="E111" s="259"/>
-      <c r="F111" s="257"/>
-      <c r="G111" s="257"/>
-      <c r="H111" s="257"/>
-      <c r="I111" s="258"/>
+      <c r="B111" s="187" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" s="187"/>
+      <c r="D111" s="188"/>
+      <c r="E111" s="193"/>
+      <c r="F111" s="191"/>
+      <c r="G111" s="191"/>
+      <c r="H111" s="191"/>
+      <c r="I111" s="192"/>
     </row>
     <row r="112" spans="1:9" s="45" customFormat="1" ht="60">
       <c r="A112" s="52">
@@ -9273,13 +9453,13 @@
       </c>
       <c r="C112" s="169"/>
       <c r="D112" s="163"/>
-      <c r="E112" s="249"/>
-      <c r="F112" s="257"/>
-      <c r="G112" s="257"/>
-      <c r="H112" s="257"/>
-      <c r="I112" s="258"/>
-    </row>
-    <row r="113" spans="1:10" s="45" customFormat="1" ht="75">
+      <c r="E112" s="186"/>
+      <c r="F112" s="191"/>
+      <c r="G112" s="191"/>
+      <c r="H112" s="191"/>
+      <c r="I112" s="192"/>
+    </row>
+    <row r="113" spans="1:9" s="45" customFormat="1" ht="60">
       <c r="A113" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>80</v>
@@ -9289,414 +9469,396 @@
       </c>
       <c r="C113" s="169"/>
       <c r="D113" s="163"/>
-      <c r="E113" s="249"/>
-      <c r="F113" s="257"/>
-      <c r="G113" s="257"/>
-      <c r="H113" s="257"/>
-      <c r="I113" s="258"/>
-    </row>
-    <row r="114" spans="1:10" s="48" customFormat="1" ht="14.25">
-      <c r="A114" s="52"/>
-      <c r="B114" s="181" t="s">
-        <v>198</v>
-      </c>
-      <c r="C114" s="182"/>
-      <c r="D114" s="183"/>
-      <c r="E114" s="181"/>
-      <c r="F114" s="182"/>
-      <c r="G114" s="183"/>
-      <c r="H114" s="183"/>
-      <c r="I114" s="183"/>
-    </row>
-    <row r="115" spans="1:10" s="167" customFormat="1" ht="60">
+      <c r="E113" s="186"/>
+      <c r="F113" s="191"/>
+      <c r="G113" s="191"/>
+      <c r="H113" s="191"/>
+      <c r="I113" s="192"/>
+    </row>
+    <row r="114" spans="1:9" s="45" customFormat="1" ht="30">
+      <c r="A114" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B114" s="169" t="s">
+        <v>328</v>
+      </c>
+      <c r="C114" s="169"/>
+      <c r="D114" s="163"/>
+      <c r="E114" s="186"/>
+      <c r="F114" s="191"/>
+      <c r="G114" s="191"/>
+      <c r="H114" s="191"/>
+      <c r="I114" s="192"/>
+    </row>
+    <row r="115" spans="1:9" s="45" customFormat="1" ht="30">
       <c r="A115" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B115" s="169" t="s">
-        <v>235</v>
-      </c>
-      <c r="C115" s="163"/>
+        <v>331</v>
+      </c>
+      <c r="C115" s="169"/>
       <c r="D115" s="163"/>
-      <c r="E115" s="164"/>
-      <c r="F115" s="165"/>
-      <c r="G115" s="165"/>
-      <c r="H115" s="165"/>
-      <c r="I115" s="166"/>
-    </row>
-    <row r="116" spans="1:10" s="167" customFormat="1">
-      <c r="A116" s="52"/>
-      <c r="B116" s="250" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" s="251"/>
-      <c r="D116" s="251"/>
-      <c r="E116" s="252"/>
-      <c r="F116" s="165"/>
-      <c r="G116" s="165"/>
-      <c r="H116" s="165"/>
-      <c r="I116" s="166"/>
-    </row>
-    <row r="117" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="E115" s="186"/>
+      <c r="F115" s="191"/>
+      <c r="G115" s="191"/>
+      <c r="H115" s="191"/>
+      <c r="I115" s="192"/>
+    </row>
+    <row r="116" spans="1:9" s="45" customFormat="1" ht="30">
+      <c r="A116" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B116" s="169" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="169"/>
+      <c r="D116" s="163"/>
+      <c r="E116" s="186"/>
+      <c r="F116" s="191"/>
+      <c r="G116" s="191"/>
+      <c r="H116" s="191"/>
+      <c r="I116" s="192"/>
+    </row>
+    <row r="117" spans="1:9" s="45" customFormat="1" ht="90">
       <c r="A117" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B117" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="163"/>
+        <v>330</v>
+      </c>
+      <c r="C117" s="169"/>
       <c r="D117" s="163"/>
-      <c r="E117" s="164"/>
-      <c r="F117" s="165"/>
-      <c r="G117" s="165"/>
-      <c r="H117" s="165"/>
-      <c r="I117" s="166"/>
-    </row>
-    <row r="118" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="E117" s="186"/>
+      <c r="F117" s="191"/>
+      <c r="G117" s="191"/>
+      <c r="H117" s="191"/>
+      <c r="I117" s="192"/>
+    </row>
+    <row r="118" spans="1:9" s="45" customFormat="1" ht="90">
       <c r="A118" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B118" s="169" t="s">
-        <v>258</v>
-      </c>
-      <c r="C118" s="163"/>
+        <v>336</v>
+      </c>
+      <c r="C118" s="169"/>
       <c r="D118" s="163"/>
-      <c r="E118" s="164"/>
-      <c r="F118" s="165"/>
-      <c r="G118" s="165"/>
-      <c r="H118" s="165"/>
-      <c r="I118" s="166"/>
-    </row>
-    <row r="119" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="E118" s="186"/>
+      <c r="F118" s="191"/>
+      <c r="G118" s="191"/>
+      <c r="H118" s="191"/>
+      <c r="I118" s="192"/>
+    </row>
+    <row r="119" spans="1:9" s="45" customFormat="1" ht="30">
       <c r="A119" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B119" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="C119" s="163"/>
+        <v>333</v>
+      </c>
+      <c r="C119" s="169"/>
       <c r="D119" s="163"/>
-      <c r="E119" s="164"/>
-      <c r="F119" s="165"/>
-      <c r="G119" s="165"/>
-      <c r="H119" s="165"/>
-      <c r="I119" s="166"/>
-    </row>
-    <row r="120" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="E119" s="186"/>
+      <c r="F119" s="191"/>
+      <c r="G119" s="191"/>
+      <c r="H119" s="191"/>
+      <c r="I119" s="192"/>
+    </row>
+    <row r="120" spans="1:9" s="45" customFormat="1" ht="45">
       <c r="A120" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B120" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120" s="163"/>
-      <c r="D120" s="165"/>
-      <c r="E120" s="164"/>
-      <c r="F120" s="165"/>
-      <c r="G120" s="165"/>
-      <c r="H120" s="165"/>
-      <c r="I120" s="166"/>
-    </row>
-    <row r="121" spans="1:10" s="167" customFormat="1" ht="45">
+        <v>329</v>
+      </c>
+      <c r="C120" s="169"/>
+      <c r="D120" s="163"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="191"/>
+      <c r="G120" s="191"/>
+      <c r="H120" s="191"/>
+      <c r="I120" s="192"/>
+    </row>
+    <row r="121" spans="1:9" s="45" customFormat="1" ht="30">
       <c r="A121" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B121" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="163"/>
+        <v>334</v>
+      </c>
+      <c r="C121" s="169"/>
       <c r="D121" s="163"/>
-      <c r="E121" s="164"/>
-      <c r="F121" s="165"/>
-      <c r="G121" s="165"/>
-      <c r="H121" s="165"/>
-      <c r="I121" s="166"/>
-    </row>
-    <row r="122" spans="1:10" s="167" customFormat="1">
-      <c r="A122" s="52"/>
-      <c r="B122" s="250" t="s">
-        <v>243</v>
-      </c>
-      <c r="C122" s="251"/>
-      <c r="D122" s="251"/>
-      <c r="E122" s="252"/>
-      <c r="F122" s="165"/>
-      <c r="G122" s="165"/>
-      <c r="H122" s="165"/>
-      <c r="I122" s="166"/>
-    </row>
-    <row r="123" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="E121" s="186"/>
+      <c r="F121" s="191"/>
+      <c r="G121" s="191"/>
+      <c r="H121" s="191"/>
+      <c r="I121" s="192"/>
+    </row>
+    <row r="122" spans="1:9" s="45" customFormat="1" ht="30">
+      <c r="A122" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B122" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="169"/>
+      <c r="D122" s="163"/>
+      <c r="E122" s="186"/>
+      <c r="F122" s="191"/>
+      <c r="G122" s="191"/>
+      <c r="H122" s="191"/>
+      <c r="I122" s="192"/>
+    </row>
+    <row r="123" spans="1:9" s="45" customFormat="1" ht="90">
       <c r="A123" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B123" s="169" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="C123" s="169"/>
       <c r="D123" s="163"/>
-      <c r="E123" s="163"/>
-      <c r="F123" s="164"/>
-      <c r="G123" s="165"/>
-      <c r="H123" s="165"/>
-      <c r="I123" s="165"/>
-      <c r="J123" s="260"/>
-    </row>
-    <row r="124" spans="1:10" s="167" customFormat="1" ht="45">
-      <c r="A124" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B124" s="169" t="s">
-        <v>204</v>
-      </c>
-      <c r="C124" s="169"/>
-      <c r="D124" s="163"/>
-      <c r="E124" s="163"/>
-      <c r="F124" s="164"/>
-      <c r="G124" s="165"/>
-      <c r="H124" s="165"/>
-      <c r="I124" s="165"/>
-      <c r="J124" s="260"/>
-    </row>
-    <row r="125" spans="1:10" s="167" customFormat="1" ht="60">
+      <c r="E123" s="186"/>
+      <c r="F123" s="191"/>
+      <c r="G123" s="191"/>
+      <c r="H123" s="191"/>
+      <c r="I123" s="192"/>
+    </row>
+    <row r="124" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A124" s="52"/>
+      <c r="B124" s="181" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="182"/>
+      <c r="D124" s="183"/>
+      <c r="E124" s="181"/>
+      <c r="F124" s="182"/>
+      <c r="G124" s="183"/>
+      <c r="H124" s="183"/>
+      <c r="I124" s="183"/>
+    </row>
+    <row r="125" spans="1:9" s="167" customFormat="1" ht="60">
       <c r="A125" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B125" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="C125" s="169"/>
+        <v>235</v>
+      </c>
+      <c r="C125" s="163"/>
       <c r="D125" s="163"/>
-      <c r="E125" s="163"/>
-      <c r="F125" s="164"/>
+      <c r="E125" s="164"/>
+      <c r="F125" s="165"/>
       <c r="G125" s="165"/>
       <c r="H125" s="165"/>
-      <c r="I125" s="165"/>
-      <c r="J125" s="260"/>
-    </row>
-    <row r="126" spans="1:10" s="167" customFormat="1" ht="60">
-      <c r="A126" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B126" s="169" t="s">
-        <v>206</v>
-      </c>
-      <c r="C126" s="169"/>
-      <c r="D126" s="163"/>
-      <c r="E126" s="163"/>
-      <c r="F126" s="164"/>
+      <c r="I125" s="166"/>
+    </row>
+    <row r="126" spans="1:9" s="167" customFormat="1">
+      <c r="A126" s="52"/>
+      <c r="B126" s="187" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" s="188"/>
+      <c r="D126" s="188"/>
+      <c r="E126" s="189"/>
+      <c r="F126" s="165"/>
       <c r="G126" s="165"/>
       <c r="H126" s="165"/>
-      <c r="I126" s="165"/>
-      <c r="J126" s="260"/>
-    </row>
-    <row r="127" spans="1:10" s="167" customFormat="1">
-      <c r="A127" s="52"/>
-      <c r="B127" s="250" t="s">
-        <v>242</v>
-      </c>
-      <c r="C127" s="250"/>
-      <c r="D127" s="251"/>
-      <c r="E127" s="251"/>
-      <c r="F127" s="164"/>
+      <c r="I126" s="166"/>
+    </row>
+    <row r="127" spans="1:9" s="167" customFormat="1" ht="45">
+      <c r="A127" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B127" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127" s="163"/>
+      <c r="D127" s="163"/>
+      <c r="E127" s="164"/>
+      <c r="F127" s="165"/>
       <c r="G127" s="165"/>
       <c r="H127" s="165"/>
-      <c r="I127" s="165"/>
-      <c r="J127" s="247"/>
-    </row>
-    <row r="128" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="I127" s="166"/>
+    </row>
+    <row r="128" spans="1:9" s="167" customFormat="1" ht="30">
       <c r="A128" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B128" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="C128" s="169"/>
+        <v>258</v>
+      </c>
+      <c r="C128" s="163"/>
       <c r="D128" s="163"/>
-      <c r="E128" s="163"/>
-      <c r="F128" s="164"/>
+      <c r="E128" s="164"/>
+      <c r="F128" s="165"/>
       <c r="G128" s="165"/>
       <c r="H128" s="165"/>
-      <c r="I128" s="165"/>
-      <c r="J128" s="247"/>
+      <c r="I128" s="166"/>
     </row>
     <row r="129" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A129" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B129" s="169" t="s">
-        <v>261</v>
-      </c>
-      <c r="C129" s="169"/>
+        <v>200</v>
+      </c>
+      <c r="C129" s="163"/>
       <c r="D129" s="163"/>
-      <c r="E129" s="163"/>
-      <c r="F129" s="164"/>
+      <c r="E129" s="164"/>
+      <c r="F129" s="165"/>
       <c r="G129" s="165"/>
       <c r="H129" s="165"/>
-      <c r="I129" s="165"/>
-      <c r="J129" s="247"/>
-    </row>
-    <row r="130" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="I129" s="166"/>
+    </row>
+    <row r="130" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A130" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B130" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="C130" s="169"/>
-      <c r="D130" s="163"/>
-      <c r="E130" s="248" t="s">
-        <v>209</v>
-      </c>
-      <c r="F130" s="164"/>
+        <v>201</v>
+      </c>
+      <c r="C130" s="163"/>
+      <c r="D130" s="165"/>
+      <c r="E130" s="164"/>
+      <c r="F130" s="165"/>
       <c r="G130" s="165"/>
       <c r="H130" s="165"/>
-      <c r="I130" s="165"/>
-      <c r="J130" s="247"/>
-    </row>
-    <row r="131" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="I130" s="166"/>
+    </row>
+    <row r="131" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A131" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B131" s="169" t="s">
-        <v>252</v>
-      </c>
-      <c r="C131" s="169"/>
+        <v>202</v>
+      </c>
+      <c r="C131" s="163"/>
       <c r="D131" s="163"/>
-      <c r="E131" s="249"/>
-      <c r="F131" s="164"/>
+      <c r="E131" s="164"/>
+      <c r="F131" s="165"/>
       <c r="G131" s="165"/>
       <c r="H131" s="165"/>
-      <c r="I131" s="165"/>
-      <c r="J131" s="247"/>
-    </row>
-    <row r="132" spans="1:10" s="167" customFormat="1" ht="38.25">
-      <c r="A132" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B132" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="C132" s="169"/>
-      <c r="D132" s="163"/>
-      <c r="E132" s="165" t="s">
-        <v>208</v>
-      </c>
-      <c r="F132" s="164"/>
+      <c r="I131" s="166"/>
+    </row>
+    <row r="132" spans="1:10" s="167" customFormat="1">
+      <c r="A132" s="52"/>
+      <c r="B132" s="187" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="188"/>
+      <c r="D132" s="188"/>
+      <c r="E132" s="189"/>
+      <c r="F132" s="165"/>
       <c r="G132" s="165"/>
       <c r="H132" s="165"/>
-      <c r="I132" s="165"/>
-      <c r="J132" s="247"/>
-    </row>
-    <row r="133" spans="1:10" s="167" customFormat="1" ht="38.25">
+      <c r="I132" s="166"/>
+    </row>
+    <row r="133" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A133" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B133" s="169" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C133" s="169"/>
       <c r="D133" s="163"/>
-      <c r="E133" s="165" t="s">
-        <v>208</v>
-      </c>
+      <c r="E133" s="163"/>
       <c r="F133" s="164"/>
       <c r="G133" s="165"/>
       <c r="H133" s="165"/>
       <c r="I133" s="165"/>
-      <c r="J133" s="247"/>
-    </row>
-    <row r="134" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J133" s="194"/>
+    </row>
+    <row r="134" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A134" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B134" s="169" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="C134" s="169"/>
       <c r="D134" s="163"/>
-      <c r="E134" s="165"/>
+      <c r="E134" s="163"/>
       <c r="F134" s="164"/>
       <c r="G134" s="165"/>
       <c r="H134" s="165"/>
       <c r="I134" s="165"/>
-      <c r="J134" s="247"/>
-    </row>
-    <row r="135" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J134" s="194"/>
+    </row>
+    <row r="135" spans="1:10" s="167" customFormat="1" ht="60">
       <c r="A135" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B135" s="169" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="C135" s="169"/>
       <c r="D135" s="163"/>
-      <c r="E135" s="165"/>
+      <c r="E135" s="163"/>
       <c r="F135" s="164"/>
       <c r="G135" s="165"/>
       <c r="H135" s="165"/>
       <c r="I135" s="165"/>
-      <c r="J135" s="247"/>
-    </row>
-    <row r="136" spans="1:10" s="167" customFormat="1" ht="38.25">
+      <c r="J135" s="194"/>
+    </row>
+    <row r="136" spans="1:10" s="167" customFormat="1" ht="60">
       <c r="A136" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="169" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C136" s="169"/>
       <c r="D136" s="163"/>
-      <c r="E136" s="165" t="s">
-        <v>208</v>
-      </c>
+      <c r="E136" s="163"/>
       <c r="F136" s="164"/>
       <c r="G136" s="165"/>
       <c r="H136" s="165"/>
       <c r="I136" s="165"/>
-      <c r="J136" s="247"/>
-    </row>
-    <row r="137" spans="1:10" s="167" customFormat="1" ht="30">
-      <c r="A137" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B137" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="C137" s="169"/>
-      <c r="D137" s="163"/>
-      <c r="E137" s="163"/>
+      <c r="J136" s="194"/>
+    </row>
+    <row r="137" spans="1:10" s="167" customFormat="1">
+      <c r="A137" s="52"/>
+      <c r="B137" s="187" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="187"/>
+      <c r="D137" s="188"/>
+      <c r="E137" s="188"/>
       <c r="F137" s="164"/>
       <c r="G137" s="165"/>
       <c r="H137" s="165"/>
       <c r="I137" s="165"/>
-      <c r="J137" s="247"/>
-    </row>
-    <row r="138" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J137" s="184"/>
+    </row>
+    <row r="138" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A138" s="52">
         <f t="shared" ca="1" si="1"/>
         <v>101</v>
       </c>
       <c r="B138" s="169" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C138" s="169"/>
       <c r="D138" s="163"/>
@@ -9705,7 +9867,7 @@
       <c r="G138" s="165"/>
       <c r="H138" s="165"/>
       <c r="I138" s="165"/>
-      <c r="J138" s="247"/>
+      <c r="J138" s="184"/>
     </row>
     <row r="139" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A139" s="52">
@@ -9713,7 +9875,7 @@
         <v>102</v>
       </c>
       <c r="B139" s="169" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C139" s="169"/>
       <c r="D139" s="163"/>
@@ -9722,7 +9884,7 @@
       <c r="G139" s="165"/>
       <c r="H139" s="165"/>
       <c r="I139" s="165"/>
-      <c r="J139" s="247"/>
+      <c r="J139" s="184"/>
     </row>
     <row r="140" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A140" s="52">
@@ -9730,16 +9892,18 @@
         <v>103</v>
       </c>
       <c r="B140" s="169" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C140" s="169"/>
       <c r="D140" s="163"/>
-      <c r="E140" s="163"/>
+      <c r="E140" s="185" t="s">
+        <v>209</v>
+      </c>
       <c r="F140" s="164"/>
       <c r="G140" s="165"/>
       <c r="H140" s="165"/>
       <c r="I140" s="165"/>
-      <c r="J140" s="247"/>
+      <c r="J140" s="184"/>
     </row>
     <row r="141" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A141" s="52">
@@ -9747,122 +9911,132 @@
         <v>104</v>
       </c>
       <c r="B141" s="169" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="C141" s="169"/>
       <c r="D141" s="163"/>
-      <c r="E141" s="163"/>
+      <c r="E141" s="186"/>
       <c r="F141" s="164"/>
       <c r="G141" s="165"/>
       <c r="H141" s="165"/>
       <c r="I141" s="165"/>
-      <c r="J141" s="247"/>
-    </row>
-    <row r="142" spans="1:10" s="167" customFormat="1">
-      <c r="A142" s="52"/>
-      <c r="B142" s="250" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" s="250"/>
-      <c r="D142" s="251"/>
-      <c r="E142" s="251"/>
+      <c r="J141" s="184"/>
+    </row>
+    <row r="142" spans="1:10" s="167" customFormat="1" ht="38.25">
+      <c r="A142" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B142" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="169"/>
+      <c r="D142" s="163"/>
+      <c r="E142" s="165" t="s">
+        <v>208</v>
+      </c>
       <c r="F142" s="164"/>
       <c r="G142" s="165"/>
       <c r="H142" s="165"/>
       <c r="I142" s="165"/>
-      <c r="J142" s="247"/>
-    </row>
-    <row r="143" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J142" s="184"/>
+    </row>
+    <row r="143" spans="1:10" s="167" customFormat="1" ht="38.25">
       <c r="A143" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B143" s="169" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C143" s="169"/>
       <c r="D143" s="163"/>
-      <c r="E143" s="163"/>
+      <c r="E143" s="165" t="s">
+        <v>208</v>
+      </c>
       <c r="F143" s="164"/>
       <c r="G143" s="165"/>
       <c r="H143" s="165"/>
       <c r="I143" s="165"/>
-      <c r="J143" s="247"/>
+      <c r="J143" s="184"/>
     </row>
     <row r="144" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A144" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B144" s="169" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C144" s="169"/>
       <c r="D144" s="163"/>
-      <c r="E144" s="163"/>
+      <c r="E144" s="165"/>
       <c r="F144" s="164"/>
       <c r="G144" s="165"/>
       <c r="H144" s="165"/>
       <c r="I144" s="165"/>
-      <c r="J144" s="247"/>
-    </row>
-    <row r="145" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J144" s="184"/>
+    </row>
+    <row r="145" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A145" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B145" s="169" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C145" s="169"/>
       <c r="D145" s="163"/>
-      <c r="E145" s="163"/>
+      <c r="E145" s="165"/>
       <c r="F145" s="164"/>
       <c r="G145" s="165"/>
       <c r="H145" s="165"/>
       <c r="I145" s="165"/>
-      <c r="J145" s="247"/>
-    </row>
-    <row r="146" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J145" s="184"/>
+    </row>
+    <row r="146" spans="1:10" s="167" customFormat="1" ht="38.25">
       <c r="A146" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B146" s="169" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C146" s="169"/>
       <c r="D146" s="163"/>
       <c r="E146" s="165" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F146" s="164"/>
       <c r="G146" s="165"/>
       <c r="H146" s="165"/>
       <c r="I146" s="165"/>
-      <c r="J146" s="247"/>
-    </row>
-    <row r="147" spans="1:10" s="167" customFormat="1">
-      <c r="A147" s="52"/>
-      <c r="B147" s="250" t="s">
-        <v>240</v>
-      </c>
-      <c r="C147" s="250"/>
-      <c r="D147" s="251"/>
-      <c r="E147" s="253"/>
+      <c r="J146" s="184"/>
+    </row>
+    <row r="147" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="A147" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B147" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="169"/>
+      <c r="D147" s="163"/>
+      <c r="E147" s="163"/>
       <c r="F147" s="164"/>
       <c r="G147" s="165"/>
       <c r="H147" s="165"/>
       <c r="I147" s="165"/>
-      <c r="J147" s="247"/>
-    </row>
-    <row r="148" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J147" s="184"/>
+    </row>
+    <row r="148" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A148" s="52">
-        <f t="shared" ref="A148:A173" ca="1" si="2">IF(OFFSET(A148,-1,0) ="",OFFSET(A148,-2,0)+1,OFFSET(A148,-1,0)+1 )</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
       </c>
       <c r="B148" s="169" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C148" s="169"/>
       <c r="D148" s="163"/>
@@ -9871,15 +10045,15 @@
       <c r="G148" s="165"/>
       <c r="H148" s="165"/>
       <c r="I148" s="165"/>
-      <c r="J148" s="247"/>
+      <c r="J148" s="184"/>
     </row>
     <row r="149" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A149" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>112</v>
       </c>
       <c r="B149" s="169" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C149" s="169"/>
       <c r="D149" s="163"/>
@@ -9888,15 +10062,15 @@
       <c r="G149" s="165"/>
       <c r="H149" s="165"/>
       <c r="I149" s="165"/>
-      <c r="J149" s="247"/>
+      <c r="J149" s="184"/>
     </row>
     <row r="150" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A150" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>113</v>
       </c>
       <c r="B150" s="169" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C150" s="169"/>
       <c r="D150" s="163"/>
@@ -9905,46 +10079,46 @@
       <c r="G150" s="165"/>
       <c r="H150" s="165"/>
       <c r="I150" s="165"/>
-      <c r="J150" s="247"/>
-    </row>
-    <row r="151" spans="1:10" s="167" customFormat="1">
-      <c r="A151" s="52"/>
-      <c r="B151" s="250" t="s">
-        <v>239</v>
-      </c>
-      <c r="C151" s="250"/>
-      <c r="D151" s="251"/>
-      <c r="E151" s="251"/>
+      <c r="J150" s="184"/>
+    </row>
+    <row r="151" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="A151" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B151" s="169" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" s="169"/>
+      <c r="D151" s="163"/>
+      <c r="E151" s="163"/>
       <c r="F151" s="164"/>
       <c r="G151" s="165"/>
       <c r="H151" s="165"/>
       <c r="I151" s="165"/>
-      <c r="J151" s="247"/>
-    </row>
-    <row r="152" spans="1:10" s="167" customFormat="1" ht="45">
-      <c r="A152" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="B152" s="169" t="s">
-        <v>229</v>
-      </c>
-      <c r="C152" s="169"/>
-      <c r="D152" s="163"/>
-      <c r="E152" s="163"/>
+      <c r="J151" s="184"/>
+    </row>
+    <row r="152" spans="1:10" s="167" customFormat="1">
+      <c r="A152" s="52"/>
+      <c r="B152" s="187" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="187"/>
+      <c r="D152" s="188"/>
+      <c r="E152" s="188"/>
       <c r="F152" s="164"/>
       <c r="G152" s="165"/>
       <c r="H152" s="165"/>
       <c r="I152" s="165"/>
-      <c r="J152" s="247"/>
-    </row>
-    <row r="153" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J152" s="184"/>
+    </row>
+    <row r="153" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A153" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
       </c>
       <c r="B153" s="169" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C153" s="169"/>
       <c r="D153" s="163"/>
@@ -9953,34 +10127,32 @@
       <c r="G153" s="165"/>
       <c r="H153" s="165"/>
       <c r="I153" s="165"/>
-      <c r="J153" s="247"/>
+      <c r="J153" s="184"/>
     </row>
     <row r="154" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A154" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>116</v>
       </c>
       <c r="B154" s="169" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="C154" s="169"/>
       <c r="D154" s="163"/>
-      <c r="E154" s="165" t="s">
-        <v>227</v>
-      </c>
+      <c r="E154" s="163"/>
       <c r="F154" s="164"/>
       <c r="G154" s="165"/>
       <c r="H154" s="165"/>
       <c r="I154" s="165"/>
-      <c r="J154" s="247"/>
-    </row>
-    <row r="155" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J154" s="184"/>
+    </row>
+    <row r="155" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A155" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
       </c>
       <c r="B155" s="169" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C155" s="169"/>
       <c r="D155" s="163"/>
@@ -9989,53 +10161,48 @@
       <c r="G155" s="165"/>
       <c r="H155" s="165"/>
       <c r="I155" s="165"/>
-      <c r="J155" s="247"/>
-    </row>
-    <row r="156" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J155" s="184"/>
+    </row>
+    <row r="156" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A156" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>118</v>
       </c>
       <c r="B156" s="169" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C156" s="169"/>
       <c r="D156" s="163"/>
       <c r="E156" s="165" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F156" s="164"/>
       <c r="G156" s="165"/>
       <c r="H156" s="165"/>
       <c r="I156" s="165"/>
-      <c r="J156" s="247"/>
-    </row>
-    <row r="157" spans="1:10" s="167" customFormat="1" ht="30">
-      <c r="A157" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="B157" s="169" t="s">
-        <v>231</v>
-      </c>
-      <c r="C157" s="169"/>
-      <c r="D157" s="163"/>
-      <c r="E157" s="165" t="s">
-        <v>228</v>
-      </c>
+      <c r="J156" s="184"/>
+    </row>
+    <row r="157" spans="1:10" s="167" customFormat="1">
+      <c r="A157" s="52"/>
+      <c r="B157" s="187" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" s="187"/>
+      <c r="D157" s="188"/>
+      <c r="E157" s="190"/>
       <c r="F157" s="164"/>
       <c r="G157" s="165"/>
       <c r="H157" s="165"/>
       <c r="I157" s="165"/>
-      <c r="J157" s="247"/>
-    </row>
-    <row r="158" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="J157" s="184"/>
+    </row>
+    <row r="158" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A158" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <f t="shared" ref="A158:A183" ca="1" si="2">IF(OFFSET(A158,-1,0) ="",OFFSET(A158,-2,0)+1,OFFSET(A158,-1,0)+1 )</f>
+        <v>119</v>
       </c>
       <c r="B158" s="169" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C158" s="169"/>
       <c r="D158" s="163"/>
@@ -10044,15 +10211,15 @@
       <c r="G158" s="165"/>
       <c r="H158" s="165"/>
       <c r="I158" s="165"/>
-      <c r="J158" s="247"/>
+      <c r="J158" s="184"/>
     </row>
     <row r="159" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A159" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B159" s="169" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C159" s="169"/>
       <c r="D159" s="163"/>
@@ -10061,43 +10228,38 @@
       <c r="G159" s="165"/>
       <c r="H159" s="165"/>
       <c r="I159" s="165"/>
-      <c r="J159" s="247"/>
+      <c r="J159" s="184"/>
     </row>
     <row r="160" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A160" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B160" s="169" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C160" s="169"/>
       <c r="D160" s="163"/>
-      <c r="E160" s="165" t="s">
-        <v>228</v>
-      </c>
+      <c r="E160" s="163"/>
       <c r="F160" s="164"/>
       <c r="G160" s="165"/>
       <c r="H160" s="165"/>
       <c r="I160" s="165"/>
-      <c r="J160" s="247"/>
-    </row>
-    <row r="161" spans="1:10" s="167" customFormat="1" ht="45">
-      <c r="A161" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="B161" s="169" t="s">
-        <v>322</v>
-      </c>
-      <c r="C161" s="169"/>
-      <c r="D161" s="163"/>
-      <c r="E161" s="165"/>
+      <c r="J160" s="184"/>
+    </row>
+    <row r="161" spans="1:10" s="167" customFormat="1">
+      <c r="A161" s="52"/>
+      <c r="B161" s="187" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" s="187"/>
+      <c r="D161" s="188"/>
+      <c r="E161" s="188"/>
       <c r="F161" s="164"/>
       <c r="G161" s="165"/>
       <c r="H161" s="165"/>
       <c r="I161" s="165"/>
-      <c r="J161" s="247"/>
+      <c r="J161" s="184"/>
     </row>
     <row r="162" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A162" s="52">
@@ -10105,106 +10267,115 @@
         <v>122</v>
       </c>
       <c r="B162" s="169" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="C162" s="169"/>
       <c r="D162" s="163"/>
-      <c r="E162" s="165"/>
+      <c r="E162" s="163"/>
       <c r="F162" s="164"/>
       <c r="G162" s="165"/>
       <c r="H162" s="165"/>
       <c r="I162" s="165"/>
-      <c r="J162" s="247"/>
-    </row>
-    <row r="163" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J162" s="184"/>
+    </row>
+    <row r="163" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A163" s="52">
         <f t="shared" ca="1" si="2"/>
         <v>123</v>
       </c>
       <c r="B163" s="169" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="C163" s="169"/>
       <c r="D163" s="163"/>
-      <c r="E163" s="165"/>
+      <c r="E163" s="163"/>
       <c r="F163" s="164"/>
       <c r="G163" s="165"/>
       <c r="H163" s="165"/>
       <c r="I163" s="165"/>
-      <c r="J163" s="247"/>
-    </row>
-    <row r="164" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J163" s="184"/>
+    </row>
+    <row r="164" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A164" s="52">
         <f t="shared" ca="1" si="2"/>
         <v>124</v>
       </c>
       <c r="B164" s="169" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="C164" s="169"/>
       <c r="D164" s="163"/>
-      <c r="E164" s="165"/>
+      <c r="E164" s="165" t="s">
+        <v>227</v>
+      </c>
       <c r="F164" s="164"/>
       <c r="G164" s="165"/>
       <c r="H164" s="165"/>
       <c r="I164" s="165"/>
-      <c r="J164" s="247"/>
-    </row>
-    <row r="165" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J164" s="184"/>
+    </row>
+    <row r="165" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A165" s="52">
         <f t="shared" ca="1" si="2"/>
         <v>125</v>
       </c>
       <c r="B165" s="169" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="C165" s="169"/>
       <c r="D165" s="163"/>
-      <c r="E165" s="165"/>
+      <c r="E165" s="163"/>
       <c r="F165" s="164"/>
       <c r="G165" s="165"/>
       <c r="H165" s="165"/>
       <c r="I165" s="165"/>
-      <c r="J165" s="247"/>
-    </row>
-    <row r="166" spans="1:10" s="167" customFormat="1">
-      <c r="A166" s="52"/>
-      <c r="B166" s="250" t="s">
-        <v>238</v>
-      </c>
-      <c r="C166" s="250"/>
-      <c r="D166" s="251"/>
-      <c r="E166" s="251"/>
+      <c r="J165" s="184"/>
+    </row>
+    <row r="166" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="A166" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B166" s="169" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" s="169"/>
+      <c r="D166" s="163"/>
+      <c r="E166" s="165" t="s">
+        <v>228</v>
+      </c>
       <c r="F166" s="164"/>
       <c r="G166" s="165"/>
       <c r="H166" s="165"/>
       <c r="I166" s="165"/>
-      <c r="J166" s="247"/>
-    </row>
-    <row r="167" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="J166" s="184"/>
+    </row>
+    <row r="167" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A167" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B167" s="169" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C167" s="169"/>
       <c r="D167" s="163"/>
-      <c r="E167" s="163"/>
+      <c r="E167" s="165" t="s">
+        <v>228</v>
+      </c>
       <c r="F167" s="164"/>
       <c r="G167" s="165"/>
       <c r="H167" s="165"/>
       <c r="I167" s="165"/>
-      <c r="J167" s="247"/>
+      <c r="J167" s="184"/>
     </row>
     <row r="168" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A168" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B168" s="169" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C168" s="169"/>
       <c r="D168" s="163"/>
@@ -10213,15 +10384,15 @@
       <c r="G168" s="165"/>
       <c r="H168" s="165"/>
       <c r="I168" s="165"/>
-      <c r="J168" s="247"/>
+      <c r="J168" s="184"/>
     </row>
     <row r="169" spans="1:10" s="167" customFormat="1" ht="30">
       <c r="A169" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B169" s="169" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C169" s="169"/>
       <c r="D169" s="163"/>
@@ -10230,280 +10401,339 @@
       <c r="G169" s="165"/>
       <c r="H169" s="165"/>
       <c r="I169" s="165"/>
-      <c r="J169" s="247"/>
-    </row>
-    <row r="170" spans="1:10" s="167" customFormat="1" ht="14.25">
-      <c r="A170" s="52"/>
-      <c r="B170" s="182" t="s">
-        <v>245</v>
-      </c>
-      <c r="C170" s="182"/>
-      <c r="D170" s="182"/>
-      <c r="E170" s="182"/>
-      <c r="F170" s="182"/>
-      <c r="G170" s="182"/>
-      <c r="H170" s="182"/>
-      <c r="I170" s="182"/>
-      <c r="J170" s="247"/>
-    </row>
-    <row r="171" spans="1:10" s="167" customFormat="1" ht="75">
+      <c r="J169" s="184"/>
+    </row>
+    <row r="170" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="A170" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B170" s="169" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" s="169"/>
+      <c r="D170" s="163"/>
+      <c r="E170" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="F170" s="164"/>
+      <c r="G170" s="165"/>
+      <c r="H170" s="165"/>
+      <c r="I170" s="165"/>
+      <c r="J170" s="184"/>
+    </row>
+    <row r="171" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A171" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B171" s="169" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="C171" s="169"/>
       <c r="D171" s="163"/>
-      <c r="E171" s="163"/>
+      <c r="E171" s="165"/>
       <c r="F171" s="164"/>
       <c r="G171" s="165"/>
       <c r="H171" s="165"/>
       <c r="I171" s="165"/>
-      <c r="J171" s="247"/>
-    </row>
-    <row r="172" spans="1:10" s="167" customFormat="1" ht="14.25">
-      <c r="A172" s="52"/>
-      <c r="B172" s="182" t="s">
-        <v>246</v>
-      </c>
-      <c r="C172" s="182"/>
-      <c r="D172" s="182"/>
-      <c r="E172" s="182"/>
-      <c r="F172" s="182"/>
-      <c r="G172" s="182"/>
-      <c r="H172" s="182"/>
-      <c r="I172" s="182"/>
-      <c r="J172" s="247"/>
-    </row>
-    <row r="173" spans="1:10" s="167" customFormat="1" ht="90">
+      <c r="J171" s="184"/>
+    </row>
+    <row r="172" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="A172" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B172" s="169" t="s">
+        <v>322</v>
+      </c>
+      <c r="C172" s="169"/>
+      <c r="D172" s="163"/>
+      <c r="E172" s="165"/>
+      <c r="F172" s="164"/>
+      <c r="G172" s="165"/>
+      <c r="H172" s="165"/>
+      <c r="I172" s="165"/>
+      <c r="J172" s="184"/>
+    </row>
+    <row r="173" spans="1:10" s="167" customFormat="1" ht="45">
       <c r="A173" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B173" s="169" t="s">
-        <v>248</v>
-      </c>
-      <c r="C173" s="163"/>
+        <v>323</v>
+      </c>
+      <c r="C173" s="169"/>
       <c r="D173" s="163"/>
-      <c r="E173" s="164"/>
-      <c r="F173" s="165"/>
+      <c r="E173" s="165"/>
+      <c r="F173" s="164"/>
       <c r="G173" s="165"/>
       <c r="H173" s="165"/>
-      <c r="I173" s="166"/>
-    </row>
-    <row r="174" spans="1:10" s="167" customFormat="1">
-      <c r="A174" s="162"/>
-      <c r="B174" s="169"/>
-      <c r="C174" s="163"/>
+      <c r="I173" s="165"/>
+      <c r="J173" s="184"/>
+    </row>
+    <row r="174" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="A174" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B174" s="169" t="s">
+        <v>324</v>
+      </c>
+      <c r="C174" s="169"/>
       <c r="D174" s="163"/>
-      <c r="E174" s="164"/>
-      <c r="F174" s="165"/>
+      <c r="E174" s="165"/>
+      <c r="F174" s="164"/>
       <c r="G174" s="165"/>
       <c r="H174" s="165"/>
-      <c r="I174" s="166"/>
-    </row>
-    <row r="175" spans="1:10" s="167" customFormat="1">
-      <c r="A175" s="162"/>
-      <c r="B175" s="169"/>
-      <c r="C175" s="168"/>
+      <c r="I174" s="165"/>
+      <c r="J174" s="184"/>
+    </row>
+    <row r="175" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="A175" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B175" s="169" t="s">
+        <v>325</v>
+      </c>
+      <c r="C175" s="169"/>
       <c r="D175" s="163"/>
-      <c r="E175" s="164"/>
-      <c r="F175" s="165"/>
+      <c r="E175" s="165"/>
+      <c r="F175" s="164"/>
       <c r="G175" s="165"/>
       <c r="H175" s="165"/>
-      <c r="I175" s="166"/>
+      <c r="I175" s="165"/>
+      <c r="J175" s="184"/>
     </row>
     <row r="176" spans="1:10" s="167" customFormat="1">
-      <c r="A176" s="162"/>
-      <c r="B176" s="169"/>
-      <c r="C176" s="179"/>
-      <c r="D176" s="163"/>
-      <c r="E176" s="164"/>
-      <c r="F176" s="165"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="187" t="s">
+        <v>238</v>
+      </c>
+      <c r="C176" s="187"/>
+      <c r="D176" s="188"/>
+      <c r="E176" s="188"/>
+      <c r="F176" s="164"/>
       <c r="G176" s="165"/>
       <c r="H176" s="165"/>
-      <c r="I176" s="166"/>
-    </row>
-    <row r="177" spans="1:9" s="167" customFormat="1">
-      <c r="A177" s="162"/>
-      <c r="B177" s="169"/>
-      <c r="C177" s="179"/>
+      <c r="I176" s="165"/>
+      <c r="J176" s="184"/>
+    </row>
+    <row r="177" spans="1:10" s="167" customFormat="1" ht="45">
+      <c r="A177" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B177" s="169" t="s">
+        <v>233</v>
+      </c>
+      <c r="C177" s="169"/>
       <c r="D177" s="163"/>
-      <c r="E177" s="164"/>
-      <c r="F177" s="165"/>
+      <c r="E177" s="163"/>
+      <c r="F177" s="164"/>
       <c r="G177" s="165"/>
       <c r="H177" s="165"/>
-      <c r="I177" s="166"/>
-    </row>
-    <row r="178" spans="1:9" s="167" customFormat="1">
-      <c r="A178" s="162"/>
-      <c r="B178" s="169"/>
-      <c r="C178" s="163"/>
+      <c r="I177" s="165"/>
+      <c r="J177" s="184"/>
+    </row>
+    <row r="178" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="A178" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B178" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="C178" s="169"/>
       <c r="D178" s="163"/>
-      <c r="E178" s="164"/>
-      <c r="F178" s="165"/>
+      <c r="E178" s="163"/>
+      <c r="F178" s="164"/>
       <c r="G178" s="165"/>
       <c r="H178" s="165"/>
-      <c r="I178" s="166"/>
-    </row>
-    <row r="179" spans="1:9" s="49" customFormat="1">
-      <c r="A179" s="162"/>
-      <c r="B179" s="254"/>
-      <c r="C179" s="255"/>
-      <c r="D179" s="256"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="159"/>
-      <c r="G179" s="159"/>
-      <c r="H179" s="159"/>
-      <c r="I179" s="58"/>
-    </row>
-    <row r="180" spans="1:9" s="49" customFormat="1">
-      <c r="A180" s="162"/>
-      <c r="B180" s="161"/>
-      <c r="C180" s="160"/>
-      <c r="D180" s="160"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="159"/>
-      <c r="G180" s="159"/>
-      <c r="H180" s="159"/>
-      <c r="I180" s="58"/>
-    </row>
-    <row r="181" spans="1:9" s="49" customFormat="1">
-      <c r="A181" s="162"/>
-      <c r="B181" s="161"/>
-      <c r="C181" s="160"/>
-      <c r="D181" s="160"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="159"/>
-      <c r="G181" s="159"/>
-      <c r="H181" s="159"/>
-      <c r="I181" s="58"/>
-    </row>
-    <row r="182" spans="1:9" s="49" customFormat="1">
-      <c r="A182" s="162"/>
-      <c r="B182" s="161"/>
-      <c r="C182" s="160"/>
-      <c r="D182" s="160"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="159"/>
-      <c r="G182" s="159"/>
-      <c r="H182" s="159"/>
-      <c r="I182" s="58"/>
-    </row>
-    <row r="183" spans="1:9" s="49" customFormat="1">
-      <c r="A183" s="162"/>
-      <c r="B183" s="161"/>
-      <c r="C183" s="160"/>
-      <c r="D183" s="160"/>
-      <c r="E183" s="53"/>
-      <c r="F183" s="159"/>
-      <c r="G183" s="159"/>
-      <c r="H183" s="159"/>
-      <c r="I183" s="58"/>
-    </row>
-    <row r="184" spans="1:9" s="49" customFormat="1">
+      <c r="I178" s="165"/>
+      <c r="J178" s="184"/>
+    </row>
+    <row r="179" spans="1:10" s="167" customFormat="1" ht="30">
+      <c r="A179" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B179" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="C179" s="169"/>
+      <c r="D179" s="163"/>
+      <c r="E179" s="163"/>
+      <c r="F179" s="164"/>
+      <c r="G179" s="165"/>
+      <c r="H179" s="165"/>
+      <c r="I179" s="165"/>
+      <c r="J179" s="184"/>
+    </row>
+    <row r="180" spans="1:10" s="167" customFormat="1" ht="14.25">
+      <c r="A180" s="52"/>
+      <c r="B180" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="C180" s="182"/>
+      <c r="D180" s="182"/>
+      <c r="E180" s="182"/>
+      <c r="F180" s="182"/>
+      <c r="G180" s="182"/>
+      <c r="H180" s="182"/>
+      <c r="I180" s="182"/>
+      <c r="J180" s="184"/>
+    </row>
+    <row r="181" spans="1:10" s="167" customFormat="1" ht="75">
+      <c r="A181" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B181" s="169" t="s">
+        <v>247</v>
+      </c>
+      <c r="C181" s="169"/>
+      <c r="D181" s="163"/>
+      <c r="E181" s="163"/>
+      <c r="F181" s="164"/>
+      <c r="G181" s="165"/>
+      <c r="H181" s="165"/>
+      <c r="I181" s="165"/>
+      <c r="J181" s="184"/>
+    </row>
+    <row r="182" spans="1:10" s="167" customFormat="1" ht="14.25">
+      <c r="A182" s="52"/>
+      <c r="B182" s="182" t="s">
+        <v>246</v>
+      </c>
+      <c r="C182" s="182"/>
+      <c r="D182" s="182"/>
+      <c r="E182" s="182"/>
+      <c r="F182" s="182"/>
+      <c r="G182" s="182"/>
+      <c r="H182" s="182"/>
+      <c r="I182" s="182"/>
+      <c r="J182" s="184"/>
+    </row>
+    <row r="183" spans="1:10" s="167" customFormat="1" ht="90">
+      <c r="A183" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B183" s="169" t="s">
+        <v>248</v>
+      </c>
+      <c r="C183" s="163"/>
+      <c r="D183" s="163"/>
+      <c r="E183" s="164"/>
+      <c r="F183" s="165"/>
+      <c r="G183" s="165"/>
+      <c r="H183" s="165"/>
+      <c r="I183" s="166"/>
+    </row>
+    <row r="184" spans="1:10" s="167" customFormat="1">
       <c r="A184" s="162"/>
-      <c r="B184" s="161"/>
-      <c r="C184" s="160"/>
-      <c r="D184" s="160"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="159"/>
-      <c r="G184" s="159"/>
-      <c r="H184" s="159"/>
-      <c r="I184" s="58"/>
-    </row>
-    <row r="185" spans="1:9" s="49" customFormat="1">
+      <c r="B184" s="169"/>
+      <c r="C184" s="163"/>
+      <c r="D184" s="163"/>
+      <c r="E184" s="164"/>
+      <c r="F184" s="165"/>
+      <c r="G184" s="165"/>
+      <c r="H184" s="165"/>
+      <c r="I184" s="166"/>
+    </row>
+    <row r="185" spans="1:10" s="167" customFormat="1">
       <c r="A185" s="162"/>
-      <c r="B185" s="161"/>
-      <c r="C185" s="160"/>
-      <c r="D185" s="160"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="159"/>
-      <c r="G185" s="159"/>
-      <c r="H185" s="159"/>
-      <c r="I185" s="58"/>
-    </row>
-    <row r="186" spans="1:9" s="49" customFormat="1">
+      <c r="B185" s="169"/>
+      <c r="C185" s="168"/>
+      <c r="D185" s="163"/>
+      <c r="E185" s="164"/>
+      <c r="F185" s="165"/>
+      <c r="G185" s="165"/>
+      <c r="H185" s="165"/>
+      <c r="I185" s="166"/>
+    </row>
+    <row r="186" spans="1:10" s="167" customFormat="1">
       <c r="A186" s="162"/>
-      <c r="B186" s="161"/>
-      <c r="C186" s="160"/>
-      <c r="D186" s="160"/>
-      <c r="E186" s="53"/>
-      <c r="F186" s="159"/>
-      <c r="G186" s="159"/>
-      <c r="H186" s="159"/>
-      <c r="I186" s="58"/>
-    </row>
-    <row r="187" spans="1:9" s="49" customFormat="1">
+      <c r="B186" s="169"/>
+      <c r="C186" s="179"/>
+      <c r="D186" s="163"/>
+      <c r="E186" s="164"/>
+      <c r="F186" s="165"/>
+      <c r="G186" s="165"/>
+      <c r="H186" s="165"/>
+      <c r="I186" s="166"/>
+    </row>
+    <row r="187" spans="1:10" s="167" customFormat="1">
       <c r="A187" s="162"/>
-      <c r="B187" s="161"/>
-      <c r="C187" s="160"/>
-      <c r="D187" s="160"/>
-      <c r="E187" s="53"/>
-      <c r="F187" s="159"/>
-      <c r="G187" s="159"/>
-      <c r="H187" s="159"/>
-      <c r="I187" s="58"/>
-    </row>
-    <row r="188" spans="1:9" s="49" customFormat="1">
-      <c r="A188" s="56"/>
-      <c r="B188" s="161"/>
-      <c r="C188" s="160"/>
-      <c r="D188" s="160"/>
-      <c r="E188" s="53"/>
-      <c r="F188" s="159"/>
-      <c r="G188" s="159"/>
-      <c r="H188" s="159"/>
-      <c r="I188" s="58"/>
-    </row>
-    <row r="189" spans="1:9" s="49" customFormat="1">
-      <c r="A189" s="56"/>
-      <c r="B189" s="161"/>
-      <c r="C189" s="160"/>
-      <c r="D189" s="160"/>
+      <c r="B187" s="169"/>
+      <c r="C187" s="179"/>
+      <c r="D187" s="163"/>
+      <c r="E187" s="164"/>
+      <c r="F187" s="165"/>
+      <c r="G187" s="165"/>
+      <c r="H187" s="165"/>
+      <c r="I187" s="166"/>
+    </row>
+    <row r="188" spans="1:10" s="167" customFormat="1">
+      <c r="A188" s="162"/>
+      <c r="B188" s="169"/>
+      <c r="C188" s="163"/>
+      <c r="D188" s="163"/>
+      <c r="E188" s="164"/>
+      <c r="F188" s="165"/>
+      <c r="G188" s="165"/>
+      <c r="H188" s="165"/>
+      <c r="I188" s="166"/>
+    </row>
+    <row r="189" spans="1:10" s="49" customFormat="1">
+      <c r="A189" s="162"/>
+      <c r="B189" s="235"/>
+      <c r="C189" s="236"/>
+      <c r="D189" s="237"/>
       <c r="E189" s="53"/>
       <c r="F189" s="159"/>
       <c r="G189" s="159"/>
       <c r="H189" s="159"/>
       <c r="I189" s="58"/>
     </row>
-    <row r="190" spans="1:9" s="49" customFormat="1">
-      <c r="A190" s="56"/>
+    <row r="190" spans="1:10" s="49" customFormat="1">
+      <c r="A190" s="162"/>
       <c r="B190" s="161"/>
       <c r="C190" s="160"/>
       <c r="D190" s="160"/>
-      <c r="E190" s="157"/>
-      <c r="F190" s="158"/>
-      <c r="G190" s="158"/>
-      <c r="H190" s="158"/>
-      <c r="I190" s="157"/>
-    </row>
-    <row r="191" spans="1:9" s="49" customFormat="1">
-      <c r="A191" s="56"/>
+      <c r="E190" s="53"/>
+      <c r="F190" s="159"/>
+      <c r="G190" s="159"/>
+      <c r="H190" s="159"/>
+      <c r="I190" s="58"/>
+    </row>
+    <row r="191" spans="1:10" s="49" customFormat="1">
+      <c r="A191" s="162"/>
       <c r="B191" s="161"/>
       <c r="C191" s="160"/>
       <c r="D191" s="160"/>
-      <c r="E191" s="53"/>
+      <c r="E191" s="57"/>
       <c r="F191" s="159"/>
       <c r="G191" s="159"/>
       <c r="H191" s="159"/>
       <c r="I191" s="58"/>
     </row>
-    <row r="192" spans="1:9" s="49" customFormat="1">
-      <c r="A192" s="56"/>
+    <row r="192" spans="1:10" s="49" customFormat="1">
+      <c r="A192" s="162"/>
       <c r="B192" s="161"/>
       <c r="C192" s="160"/>
       <c r="D192" s="160"/>
-      <c r="E192" s="53"/>
+      <c r="E192" s="57"/>
       <c r="F192" s="159"/>
       <c r="G192" s="159"/>
       <c r="H192" s="159"/>
       <c r="I192" s="58"/>
     </row>
     <row r="193" spans="1:9" s="49" customFormat="1">
-      <c r="A193" s="56"/>
+      <c r="A193" s="162"/>
       <c r="B193" s="161"/>
       <c r="C193" s="160"/>
       <c r="D193" s="160"/>
@@ -10514,7 +10744,7 @@
       <c r="I193" s="58"/>
     </row>
     <row r="194" spans="1:9" s="49" customFormat="1">
-      <c r="A194" s="56"/>
+      <c r="A194" s="162"/>
       <c r="B194" s="161"/>
       <c r="C194" s="160"/>
       <c r="D194" s="160"/>
@@ -10525,18 +10755,18 @@
       <c r="I194" s="58"/>
     </row>
     <row r="195" spans="1:9" s="49" customFormat="1">
-      <c r="A195" s="56"/>
+      <c r="A195" s="162"/>
       <c r="B195" s="161"/>
       <c r="C195" s="160"/>
       <c r="D195" s="160"/>
-      <c r="E195" s="157"/>
-      <c r="F195" s="158"/>
-      <c r="G195" s="158"/>
-      <c r="H195" s="158"/>
-      <c r="I195" s="157"/>
+      <c r="E195" s="53"/>
+      <c r="F195" s="159"/>
+      <c r="G195" s="159"/>
+      <c r="H195" s="159"/>
+      <c r="I195" s="58"/>
     </row>
     <row r="196" spans="1:9" s="49" customFormat="1">
-      <c r="A196" s="58"/>
+      <c r="A196" s="162"/>
       <c r="B196" s="161"/>
       <c r="C196" s="160"/>
       <c r="D196" s="160"/>
@@ -10547,18 +10777,18 @@
       <c r="I196" s="58"/>
     </row>
     <row r="197" spans="1:9" s="49" customFormat="1">
-      <c r="A197" s="58"/>
+      <c r="A197" s="162"/>
       <c r="B197" s="161"/>
       <c r="C197" s="160"/>
       <c r="D197" s="160"/>
-      <c r="E197" s="57"/>
+      <c r="E197" s="53"/>
       <c r="F197" s="159"/>
       <c r="G197" s="159"/>
       <c r="H197" s="159"/>
       <c r="I197" s="58"/>
     </row>
     <row r="198" spans="1:9" s="49" customFormat="1">
-      <c r="A198" s="58"/>
+      <c r="A198" s="56"/>
       <c r="B198" s="161"/>
       <c r="C198" s="160"/>
       <c r="D198" s="160"/>
@@ -10569,65 +10799,65 @@
       <c r="I198" s="58"/>
     </row>
     <row r="199" spans="1:9" s="49" customFormat="1">
-      <c r="A199" s="156"/>
+      <c r="A199" s="56"/>
       <c r="B199" s="161"/>
       <c r="C199" s="160"/>
       <c r="D199" s="160"/>
-      <c r="E199" s="157"/>
-      <c r="F199" s="158"/>
-      <c r="G199" s="158"/>
-      <c r="H199" s="158"/>
-      <c r="I199" s="157"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="159"/>
+      <c r="G199" s="159"/>
+      <c r="H199" s="159"/>
+      <c r="I199" s="58"/>
     </row>
     <row r="200" spans="1:9" s="49" customFormat="1">
-      <c r="A200" s="58"/>
-      <c r="B200" s="176"/>
-      <c r="C200" s="159"/>
-      <c r="D200" s="53"/>
-      <c r="E200" s="53"/>
-      <c r="F200" s="159"/>
-      <c r="G200" s="159"/>
-      <c r="H200" s="159"/>
-      <c r="I200" s="58"/>
+      <c r="A200" s="56"/>
+      <c r="B200" s="161"/>
+      <c r="C200" s="160"/>
+      <c r="D200" s="160"/>
+      <c r="E200" s="157"/>
+      <c r="F200" s="158"/>
+      <c r="G200" s="158"/>
+      <c r="H200" s="158"/>
+      <c r="I200" s="157"/>
     </row>
     <row r="201" spans="1:9" s="49" customFormat="1">
-      <c r="A201" s="58"/>
-      <c r="B201" s="176"/>
-      <c r="C201" s="159"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="57"/>
+      <c r="A201" s="56"/>
+      <c r="B201" s="161"/>
+      <c r="C201" s="160"/>
+      <c r="D201" s="160"/>
+      <c r="E201" s="53"/>
       <c r="F201" s="159"/>
       <c r="G201" s="159"/>
       <c r="H201" s="159"/>
       <c r="I201" s="58"/>
     </row>
     <row r="202" spans="1:9" s="49" customFormat="1">
-      <c r="A202" s="58"/>
-      <c r="B202" s="176"/>
-      <c r="C202" s="159"/>
-      <c r="D202" s="53"/>
-      <c r="E202" s="57"/>
+      <c r="A202" s="56"/>
+      <c r="B202" s="161"/>
+      <c r="C202" s="160"/>
+      <c r="D202" s="160"/>
+      <c r="E202" s="53"/>
       <c r="F202" s="159"/>
       <c r="G202" s="159"/>
       <c r="H202" s="159"/>
       <c r="I202" s="58"/>
     </row>
     <row r="203" spans="1:9" s="49" customFormat="1">
-      <c r="A203" s="58"/>
-      <c r="B203" s="176"/>
-      <c r="C203" s="159"/>
-      <c r="D203" s="53"/>
-      <c r="E203" s="57"/>
+      <c r="A203" s="56"/>
+      <c r="B203" s="161"/>
+      <c r="C203" s="160"/>
+      <c r="D203" s="160"/>
+      <c r="E203" s="53"/>
       <c r="F203" s="159"/>
       <c r="G203" s="159"/>
       <c r="H203" s="159"/>
       <c r="I203" s="58"/>
     </row>
     <row r="204" spans="1:9" s="49" customFormat="1">
-      <c r="A204" s="58"/>
-      <c r="B204" s="176"/>
-      <c r="C204" s="159"/>
-      <c r="D204" s="53"/>
+      <c r="A204" s="56"/>
+      <c r="B204" s="161"/>
+      <c r="C204" s="160"/>
+      <c r="D204" s="160"/>
       <c r="E204" s="53"/>
       <c r="F204" s="159"/>
       <c r="G204" s="159"/>
@@ -10635,21 +10865,21 @@
       <c r="I204" s="58"/>
     </row>
     <row r="205" spans="1:9" s="49" customFormat="1">
-      <c r="A205" s="58"/>
-      <c r="B205" s="176"/>
-      <c r="C205" s="159"/>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="159"/>
-      <c r="G205" s="159"/>
-      <c r="H205" s="159"/>
-      <c r="I205" s="58"/>
+      <c r="A205" s="56"/>
+      <c r="B205" s="161"/>
+      <c r="C205" s="160"/>
+      <c r="D205" s="160"/>
+      <c r="E205" s="157"/>
+      <c r="F205" s="158"/>
+      <c r="G205" s="158"/>
+      <c r="H205" s="158"/>
+      <c r="I205" s="157"/>
     </row>
     <row r="206" spans="1:9" s="49" customFormat="1">
       <c r="A206" s="58"/>
-      <c r="B206" s="176"/>
-      <c r="C206" s="159"/>
-      <c r="D206" s="57"/>
+      <c r="B206" s="161"/>
+      <c r="C206" s="160"/>
+      <c r="D206" s="160"/>
       <c r="E206" s="53"/>
       <c r="F206" s="159"/>
       <c r="G206" s="159"/>
@@ -10658,10 +10888,10 @@
     </row>
     <row r="207" spans="1:9" s="49" customFormat="1">
       <c r="A207" s="58"/>
-      <c r="B207" s="176"/>
-      <c r="C207" s="159"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="53"/>
+      <c r="B207" s="161"/>
+      <c r="C207" s="160"/>
+      <c r="D207" s="160"/>
+      <c r="E207" s="57"/>
       <c r="F207" s="159"/>
       <c r="G207" s="159"/>
       <c r="H207" s="159"/>
@@ -10669,9 +10899,9 @@
     </row>
     <row r="208" spans="1:9" s="49" customFormat="1">
       <c r="A208" s="58"/>
-      <c r="B208" s="176"/>
-      <c r="C208" s="159"/>
-      <c r="D208" s="57"/>
+      <c r="B208" s="161"/>
+      <c r="C208" s="160"/>
+      <c r="D208" s="160"/>
       <c r="E208" s="53"/>
       <c r="F208" s="159"/>
       <c r="G208" s="159"/>
@@ -10679,44 +10909,44 @@
       <c r="I208" s="58"/>
     </row>
     <row r="209" spans="1:9" s="49" customFormat="1">
-      <c r="A209" s="58"/>
-      <c r="B209" s="176"/>
-      <c r="C209" s="159"/>
-      <c r="D209" s="53"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="159"/>
-      <c r="G209" s="159"/>
-      <c r="H209" s="159"/>
-      <c r="I209" s="58"/>
+      <c r="A209" s="156"/>
+      <c r="B209" s="161"/>
+      <c r="C209" s="160"/>
+      <c r="D209" s="160"/>
+      <c r="E209" s="157"/>
+      <c r="F209" s="158"/>
+      <c r="G209" s="158"/>
+      <c r="H209" s="158"/>
+      <c r="I209" s="157"/>
     </row>
     <row r="210" spans="1:9" s="49" customFormat="1">
       <c r="A210" s="58"/>
       <c r="B210" s="176"/>
       <c r="C210" s="159"/>
       <c r="D210" s="53"/>
-      <c r="E210" s="57"/>
+      <c r="E210" s="53"/>
       <c r="F210" s="159"/>
       <c r="G210" s="159"/>
       <c r="H210" s="159"/>
       <c r="I210" s="58"/>
     </row>
-    <row r="211" spans="1:9" s="49" customFormat="1" ht="14.25">
-      <c r="A211" s="156"/>
-      <c r="B211" s="210"/>
-      <c r="C211" s="211"/>
-      <c r="D211" s="212"/>
-      <c r="E211" s="157"/>
-      <c r="F211" s="158"/>
-      <c r="G211" s="158"/>
-      <c r="H211" s="158"/>
-      <c r="I211" s="157"/>
+    <row r="211" spans="1:9" s="49" customFormat="1">
+      <c r="A211" s="58"/>
+      <c r="B211" s="176"/>
+      <c r="C211" s="159"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="159"/>
+      <c r="G211" s="159"/>
+      <c r="H211" s="159"/>
+      <c r="I211" s="58"/>
     </row>
     <row r="212" spans="1:9" s="49" customFormat="1">
       <c r="A212" s="58"/>
       <c r="B212" s="176"/>
       <c r="C212" s="159"/>
       <c r="D212" s="53"/>
-      <c r="E212" s="53"/>
+      <c r="E212" s="57"/>
       <c r="F212" s="159"/>
       <c r="G212" s="159"/>
       <c r="H212" s="159"/>
@@ -10726,7 +10956,7 @@
       <c r="A213" s="58"/>
       <c r="B213" s="176"/>
       <c r="C213" s="159"/>
-      <c r="D213" s="57"/>
+      <c r="D213" s="53"/>
       <c r="E213" s="57"/>
       <c r="F213" s="159"/>
       <c r="G213" s="159"/>
@@ -10737,29 +10967,29 @@
       <c r="A214" s="58"/>
       <c r="B214" s="176"/>
       <c r="C214" s="159"/>
-      <c r="D214" s="57"/>
-      <c r="E214" s="57"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="53"/>
       <c r="F214" s="159"/>
       <c r="G214" s="159"/>
       <c r="H214" s="159"/>
       <c r="I214" s="58"/>
     </row>
-    <row r="215" spans="1:9" s="49" customFormat="1" ht="14.25">
-      <c r="A215" s="156"/>
-      <c r="B215" s="210"/>
-      <c r="C215" s="211"/>
-      <c r="D215" s="212"/>
-      <c r="E215" s="157"/>
-      <c r="F215" s="158"/>
-      <c r="G215" s="158"/>
-      <c r="H215" s="158"/>
-      <c r="I215" s="157"/>
+    <row r="215" spans="1:9" s="49" customFormat="1">
+      <c r="A215" s="58"/>
+      <c r="B215" s="176"/>
+      <c r="C215" s="159"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="53"/>
+      <c r="F215" s="159"/>
+      <c r="G215" s="159"/>
+      <c r="H215" s="159"/>
+      <c r="I215" s="58"/>
     </row>
     <row r="216" spans="1:9" s="49" customFormat="1">
       <c r="A216" s="58"/>
       <c r="B216" s="176"/>
       <c r="C216" s="159"/>
-      <c r="D216" s="53"/>
+      <c r="D216" s="57"/>
       <c r="E216" s="53"/>
       <c r="F216" s="159"/>
       <c r="G216" s="159"/>
@@ -10770,7 +11000,7 @@
       <c r="A217" s="58"/>
       <c r="B217" s="176"/>
       <c r="C217" s="159"/>
-      <c r="D217" s="53"/>
+      <c r="D217" s="57"/>
       <c r="E217" s="53"/>
       <c r="F217" s="159"/>
       <c r="G217" s="159"/>
@@ -10781,23 +11011,23 @@
       <c r="A218" s="58"/>
       <c r="B218" s="176"/>
       <c r="C218" s="159"/>
-      <c r="D218" s="53"/>
+      <c r="D218" s="57"/>
       <c r="E218" s="53"/>
       <c r="F218" s="159"/>
       <c r="G218" s="159"/>
       <c r="H218" s="159"/>
       <c r="I218" s="58"/>
     </row>
-    <row r="219" spans="1:9" s="49" customFormat="1" ht="14.25">
-      <c r="A219" s="156"/>
-      <c r="B219" s="210"/>
-      <c r="C219" s="211"/>
-      <c r="D219" s="212"/>
-      <c r="E219" s="157"/>
-      <c r="F219" s="158"/>
-      <c r="G219" s="158"/>
-      <c r="H219" s="158"/>
-      <c r="I219" s="157"/>
+    <row r="219" spans="1:9" s="49" customFormat="1">
+      <c r="A219" s="58"/>
+      <c r="B219" s="176"/>
+      <c r="C219" s="159"/>
+      <c r="D219" s="53"/>
+      <c r="E219" s="57"/>
+      <c r="F219" s="159"/>
+      <c r="G219" s="159"/>
+      <c r="H219" s="159"/>
+      <c r="I219" s="58"/>
     </row>
     <row r="220" spans="1:9" s="49" customFormat="1">
       <c r="A220" s="58"/>
@@ -10810,34 +11040,34 @@
       <c r="H220" s="159"/>
       <c r="I220" s="58"/>
     </row>
-    <row r="221" spans="1:9" s="49" customFormat="1">
-      <c r="A221" s="58"/>
-      <c r="B221" s="176"/>
-      <c r="C221" s="159"/>
-      <c r="D221" s="57"/>
-      <c r="E221" s="57"/>
-      <c r="F221" s="159"/>
-      <c r="G221" s="159"/>
-      <c r="H221" s="159"/>
-      <c r="I221" s="58"/>
-    </row>
-    <row r="222" spans="1:9" s="49" customFormat="1" ht="14.25">
-      <c r="A222" s="156"/>
-      <c r="B222" s="210"/>
-      <c r="C222" s="211"/>
-      <c r="D222" s="212"/>
-      <c r="E222" s="157"/>
-      <c r="F222" s="158"/>
-      <c r="G222" s="158"/>
-      <c r="H222" s="158"/>
-      <c r="I222" s="157"/>
+    <row r="221" spans="1:9" s="49" customFormat="1" ht="14.25">
+      <c r="A221" s="156"/>
+      <c r="B221" s="229"/>
+      <c r="C221" s="230"/>
+      <c r="D221" s="231"/>
+      <c r="E221" s="157"/>
+      <c r="F221" s="158"/>
+      <c r="G221" s="158"/>
+      <c r="H221" s="158"/>
+      <c r="I221" s="157"/>
+    </row>
+    <row r="222" spans="1:9" s="49" customFormat="1">
+      <c r="A222" s="58"/>
+      <c r="B222" s="176"/>
+      <c r="C222" s="159"/>
+      <c r="D222" s="53"/>
+      <c r="E222" s="53"/>
+      <c r="F222" s="159"/>
+      <c r="G222" s="159"/>
+      <c r="H222" s="159"/>
+      <c r="I222" s="58"/>
     </row>
     <row r="223" spans="1:9" s="49" customFormat="1">
       <c r="A223" s="58"/>
       <c r="B223" s="176"/>
       <c r="C223" s="159"/>
-      <c r="D223" s="53"/>
-      <c r="E223" s="53"/>
+      <c r="D223" s="57"/>
+      <c r="E223" s="57"/>
       <c r="F223" s="159"/>
       <c r="G223" s="159"/>
       <c r="H223" s="159"/>
@@ -10848,28 +11078,28 @@
       <c r="B224" s="176"/>
       <c r="C224" s="159"/>
       <c r="D224" s="57"/>
-      <c r="E224" s="53"/>
+      <c r="E224" s="57"/>
       <c r="F224" s="159"/>
       <c r="G224" s="159"/>
       <c r="H224" s="159"/>
       <c r="I224" s="58"/>
     </row>
-    <row r="225" spans="1:9" s="49" customFormat="1">
-      <c r="A225" s="58"/>
-      <c r="B225" s="176"/>
-      <c r="C225" s="159"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="53"/>
-      <c r="F225" s="159"/>
-      <c r="G225" s="159"/>
-      <c r="H225" s="159"/>
-      <c r="I225" s="58"/>
+    <row r="225" spans="1:9" s="49" customFormat="1" ht="14.25">
+      <c r="A225" s="156"/>
+      <c r="B225" s="229"/>
+      <c r="C225" s="230"/>
+      <c r="D225" s="231"/>
+      <c r="E225" s="157"/>
+      <c r="F225" s="158"/>
+      <c r="G225" s="158"/>
+      <c r="H225" s="158"/>
+      <c r="I225" s="157"/>
     </row>
     <row r="226" spans="1:9" s="49" customFormat="1">
       <c r="A226" s="58"/>
       <c r="B226" s="176"/>
       <c r="C226" s="159"/>
-      <c r="D226" s="57"/>
+      <c r="D226" s="53"/>
       <c r="E226" s="53"/>
       <c r="F226" s="159"/>
       <c r="G226" s="159"/>
@@ -10880,40 +11110,150 @@
       <c r="A227" s="58"/>
       <c r="B227" s="176"/>
       <c r="C227" s="159"/>
-      <c r="D227" s="57"/>
+      <c r="D227" s="53"/>
       <c r="E227" s="53"/>
       <c r="F227" s="159"/>
       <c r="G227" s="159"/>
       <c r="H227" s="159"/>
       <c r="I227" s="58"/>
     </row>
+    <row r="228" spans="1:9" s="49" customFormat="1">
+      <c r="A228" s="58"/>
+      <c r="B228" s="176"/>
+      <c r="C228" s="159"/>
+      <c r="D228" s="53"/>
+      <c r="E228" s="53"/>
+      <c r="F228" s="159"/>
+      <c r="G228" s="159"/>
+      <c r="H228" s="159"/>
+      <c r="I228" s="58"/>
+    </row>
+    <row r="229" spans="1:9" s="49" customFormat="1" ht="14.25">
+      <c r="A229" s="156"/>
+      <c r="B229" s="229"/>
+      <c r="C229" s="230"/>
+      <c r="D229" s="231"/>
+      <c r="E229" s="157"/>
+      <c r="F229" s="158"/>
+      <c r="G229" s="158"/>
+      <c r="H229" s="158"/>
+      <c r="I229" s="157"/>
+    </row>
+    <row r="230" spans="1:9" s="49" customFormat="1">
+      <c r="A230" s="58"/>
+      <c r="B230" s="176"/>
+      <c r="C230" s="159"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="57"/>
+      <c r="F230" s="159"/>
+      <c r="G230" s="159"/>
+      <c r="H230" s="159"/>
+      <c r="I230" s="58"/>
+    </row>
+    <row r="231" spans="1:9" s="49" customFormat="1">
+      <c r="A231" s="58"/>
+      <c r="B231" s="176"/>
+      <c r="C231" s="159"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="159"/>
+      <c r="G231" s="159"/>
+      <c r="H231" s="159"/>
+      <c r="I231" s="58"/>
+    </row>
+    <row r="232" spans="1:9" s="49" customFormat="1" ht="14.25">
+      <c r="A232" s="156"/>
+      <c r="B232" s="229"/>
+      <c r="C232" s="230"/>
+      <c r="D232" s="231"/>
+      <c r="E232" s="157"/>
+      <c r="F232" s="158"/>
+      <c r="G232" s="158"/>
+      <c r="H232" s="158"/>
+      <c r="I232" s="157"/>
+    </row>
+    <row r="233" spans="1:9" s="49" customFormat="1">
+      <c r="A233" s="58"/>
+      <c r="B233" s="176"/>
+      <c r="C233" s="159"/>
+      <c r="D233" s="53"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="159"/>
+      <c r="G233" s="159"/>
+      <c r="H233" s="159"/>
+      <c r="I233" s="58"/>
+    </row>
+    <row r="234" spans="1:9" s="49" customFormat="1">
+      <c r="A234" s="58"/>
+      <c r="B234" s="176"/>
+      <c r="C234" s="159"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="53"/>
+      <c r="F234" s="159"/>
+      <c r="G234" s="159"/>
+      <c r="H234" s="159"/>
+      <c r="I234" s="58"/>
+    </row>
+    <row r="235" spans="1:9" s="49" customFormat="1">
+      <c r="A235" s="58"/>
+      <c r="B235" s="176"/>
+      <c r="C235" s="159"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="53"/>
+      <c r="F235" s="159"/>
+      <c r="G235" s="159"/>
+      <c r="H235" s="159"/>
+      <c r="I235" s="58"/>
+    </row>
+    <row r="236" spans="1:9" s="49" customFormat="1">
+      <c r="A236" s="58"/>
+      <c r="B236" s="176"/>
+      <c r="C236" s="159"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="53"/>
+      <c r="F236" s="159"/>
+      <c r="G236" s="159"/>
+      <c r="H236" s="159"/>
+      <c r="I236" s="58"/>
+    </row>
+    <row r="237" spans="1:9" s="49" customFormat="1">
+      <c r="A237" s="58"/>
+      <c r="B237" s="176"/>
+      <c r="C237" s="159"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="53"/>
+      <c r="F237" s="159"/>
+      <c r="G237" s="159"/>
+      <c r="H237" s="159"/>
+      <c r="I237" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B189:D189"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B179:D179"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F228:H285" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F238:H295" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F173:H227 G123:I172 F19:H122" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F183:H237 G133:I182 F19:H132" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -10961,13 +11301,13 @@
     </row>
     <row r="2" spans="1:12" s="74" customFormat="1" ht="26.25">
       <c r="A2" s="73"/>
-      <c r="C2" s="226" t="s">
+      <c r="C2" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="75" t="s">
         <v>112</v>
       </c>
@@ -10978,15 +11318,15 @@
     </row>
     <row r="3" spans="1:12" s="74" customFormat="1" ht="23.25">
       <c r="A3" s="73"/>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="227"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="146"/>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="228"/>
+      <c r="G3" s="258"/>
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
       <c r="J3" s="77"/>
@@ -11011,10 +11351,10 @@
       <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="229"/>
+      <c r="C6" s="240"/>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
@@ -11183,11 +11523,11 @@
       <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="240" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
@@ -11363,11 +11703,11 @@
       <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -11413,10 +11753,10 @@
       <c r="F26" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="230" t="s">
+      <c r="G26" s="259" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="231"/>
+      <c r="H26" s="260"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="90">
@@ -11441,8 +11781,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="224"/>
-      <c r="H27" s="225"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="252"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="90">
@@ -11467,8 +11807,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="224"/>
-      <c r="H28" s="225"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="252"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="90">
@@ -11493,8 +11833,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="224"/>
-      <c r="H29" s="225"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="252"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="90">
@@ -11519,8 +11859,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="224"/>
-      <c r="H30" s="225"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="252"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="90"/>
@@ -11541,8 +11881,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="224"/>
-      <c r="H31" s="225"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="252"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="96"/>
@@ -11580,10 +11920,10 @@
       <c r="E34" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="232" t="s">
+      <c r="F34" s="245" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="233"/>
+      <c r="G34" s="247"/>
     </row>
     <row r="35" spans="1:12" s="115" customFormat="1">
       <c r="A35" s="111"/>
@@ -11599,8 +11939,8 @@
       <c r="E35" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="235"/>
-      <c r="G35" s="236"/>
+      <c r="F35" s="254"/>
+      <c r="G35" s="255"/>
       <c r="H35" s="114"/>
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
@@ -11623,8 +11963,8 @@
       <c r="E36" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="224"/>
-      <c r="G36" s="225"/>
+      <c r="F36" s="251"/>
+      <c r="G36" s="252"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="90">
@@ -11642,8 +11982,8 @@
       <c r="E37" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="224"/>
-      <c r="G37" s="225"/>
+      <c r="F37" s="251"/>
+      <c r="G37" s="252"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="96"/>
@@ -11656,10 +11996,10 @@
       <c r="H38" s="98"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="229" t="s">
+      <c r="B39" s="240" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="229"/>
+      <c r="C39" s="240"/>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
@@ -11683,15 +12023,15 @@
       <c r="B41" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="234" t="s">
+      <c r="C41" s="253" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234" t="s">
+      <c r="D41" s="253"/>
+      <c r="E41" s="253" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
       <c r="H41" s="89" t="s">
         <v>180</v>
       </c>
@@ -11703,15 +12043,15 @@
       <c r="B42" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="237" t="s">
+      <c r="C42" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="237"/>
-      <c r="E42" s="237" t="s">
+      <c r="D42" s="250"/>
+      <c r="E42" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="237"/>
-      <c r="G42" s="237"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="250"/>
       <c r="H42" s="99"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -11721,15 +12061,15 @@
       <c r="B43" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="237" t="s">
+      <c r="C43" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="237"/>
-      <c r="E43" s="237" t="s">
+      <c r="D43" s="250"/>
+      <c r="E43" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="237"/>
-      <c r="G43" s="237"/>
+      <c r="F43" s="250"/>
+      <c r="G43" s="250"/>
       <c r="H43" s="99"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -11739,15 +12079,15 @@
       <c r="B44" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="237" t="s">
+      <c r="C44" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="237"/>
-      <c r="E44" s="237" t="s">
+      <c r="D44" s="250"/>
+      <c r="E44" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="237"/>
-      <c r="G44" s="237"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
       <c r="H44" s="99"/>
     </row>
     <row r="45" spans="1:12">
@@ -11759,10 +12099,10 @@
       <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="229" t="s">
+      <c r="B46" s="240" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="229"/>
+      <c r="C46" s="240"/>
       <c r="D46" s="84"/>
       <c r="E46" s="84"/>
       <c r="F46" s="84"/>
@@ -11780,22 +12120,22 @@
       <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:12" s="103" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="240" t="s">
+      <c r="A48" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="242" t="s">
+      <c r="B48" s="243" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="232" t="s">
+      <c r="C48" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="244"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="233"/>
-      <c r="G48" s="245" t="s">
+      <c r="D48" s="246"/>
+      <c r="E48" s="246"/>
+      <c r="F48" s="247"/>
+      <c r="G48" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="245" t="s">
+      <c r="H48" s="248" t="s">
         <v>186</v>
       </c>
       <c r="I48" s="238" t="s">
@@ -11806,8 +12146,8 @@
       <c r="L48" s="102"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="241"/>
-      <c r="B49" s="243"/>
+      <c r="A49" s="242"/>
+      <c r="B49" s="244"/>
       <c r="C49" s="104" t="s">
         <v>163</v>
       </c>
@@ -11820,13 +12160,13 @@
       <c r="F49" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G49" s="246"/>
-      <c r="H49" s="246"/>
+      <c r="G49" s="249"/>
+      <c r="H49" s="249"/>
       <c r="I49" s="239"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="241"/>
-      <c r="B50" s="243"/>
+      <c r="A50" s="242"/>
+      <c r="B50" s="244"/>
       <c r="C50" s="118" t="s">
         <v>189</v>
       </c>
@@ -11938,26 +12278,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -11970,6 +12290,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12013,6 +12353,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -12177,15 +12526,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
@@ -12196,6 +12536,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12212,12 +12560,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/MiddleAssignment_TestDesign2_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign2/MiddleAssignment_TestDesign2_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5281DB-DE50-46C9-AABC-A3200A29D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F1A1D8-8E4E-4932-9D13-F136B7826666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3189,6 +3189,39 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3207,38 +3240,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3246,9 +3288,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3261,52 +3300,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7644,8 +7644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7660,10 +7660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="232"/>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
+      <c r="A1" s="224"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7672,13 +7672,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="236"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7688,9 +7688,9 @@
     <row r="3" spans="1:24" s="1" customFormat="1" ht="23.25">
       <c r="A3" s="47"/>
       <c r="B3" s="170"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="225"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="236"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7717,7 +7717,7 @@
       <c r="A5" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="228"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="227"/>
       <c r="D5" s="227"/>
       <c r="E5" s="39"/>
@@ -7733,7 +7733,7 @@
       <c r="A6" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="226" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="227"/>
@@ -7764,9 +7764,9 @@
       <c r="A8" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7909,11 +7909,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="54"/>
-      <c r="F16" s="221" t="s">
+      <c r="F16" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
       <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1">
@@ -7941,11 +7941,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="12.75">
       <c r="A18" s="180"/>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="233" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="235"/>
       <c r="E18" s="59"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -10690,9 +10690,9 @@
     </row>
     <row r="189" spans="1:10" s="49" customFormat="1">
       <c r="A189" s="162"/>
-      <c r="B189" s="235"/>
-      <c r="C189" s="236"/>
-      <c r="D189" s="237"/>
+      <c r="B189" s="229"/>
+      <c r="C189" s="230"/>
+      <c r="D189" s="231"/>
       <c r="E189" s="53"/>
       <c r="F189" s="159"/>
       <c r="G189" s="159"/>
@@ -11042,9 +11042,9 @@
     </row>
     <row r="221" spans="1:9" s="49" customFormat="1" ht="14.25">
       <c r="A221" s="156"/>
-      <c r="B221" s="229"/>
-      <c r="C221" s="230"/>
-      <c r="D221" s="231"/>
+      <c r="B221" s="221"/>
+      <c r="C221" s="222"/>
+      <c r="D221" s="223"/>
       <c r="E221" s="157"/>
       <c r="F221" s="158"/>
       <c r="G221" s="158"/>
@@ -11086,9 +11086,9 @@
     </row>
     <row r="225" spans="1:9" s="49" customFormat="1" ht="14.25">
       <c r="A225" s="156"/>
-      <c r="B225" s="229"/>
-      <c r="C225" s="230"/>
-      <c r="D225" s="231"/>
+      <c r="B225" s="221"/>
+      <c r="C225" s="222"/>
+      <c r="D225" s="223"/>
       <c r="E225" s="157"/>
       <c r="F225" s="158"/>
       <c r="G225" s="158"/>
@@ -11130,9 +11130,9 @@
     </row>
     <row r="229" spans="1:9" s="49" customFormat="1" ht="14.25">
       <c r="A229" s="156"/>
-      <c r="B229" s="229"/>
-      <c r="C229" s="230"/>
-      <c r="D229" s="231"/>
+      <c r="B229" s="221"/>
+      <c r="C229" s="222"/>
+      <c r="D229" s="223"/>
       <c r="E229" s="157"/>
       <c r="F229" s="158"/>
       <c r="G229" s="158"/>
@@ -11163,9 +11163,9 @@
     </row>
     <row r="232" spans="1:9" s="49" customFormat="1" ht="14.25">
       <c r="A232" s="156"/>
-      <c r="B232" s="229"/>
-      <c r="C232" s="230"/>
-      <c r="D232" s="231"/>
+      <c r="B232" s="221"/>
+      <c r="C232" s="222"/>
+      <c r="D232" s="223"/>
       <c r="E232" s="157"/>
       <c r="F232" s="158"/>
       <c r="G232" s="158"/>
@@ -11229,6 +11229,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B229:D229"/>
     <mergeCell ref="B232:D232"/>
@@ -11239,12 +11245,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B189:D189"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -11301,13 +11301,13 @@
     </row>
     <row r="2" spans="1:12" s="74" customFormat="1" ht="26.25">
       <c r="A2" s="73"/>
-      <c r="C2" s="256" t="s">
+      <c r="C2" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="75" t="s">
         <v>112</v>
       </c>
@@ -11318,15 +11318,15 @@
     </row>
     <row r="3" spans="1:12" s="74" customFormat="1" ht="23.25">
       <c r="A3" s="73"/>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="241" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="257"/>
+      <c r="D3" s="241"/>
       <c r="E3" s="146"/>
-      <c r="F3" s="258" t="s">
+      <c r="F3" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="258"/>
+      <c r="G3" s="242"/>
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
       <c r="J3" s="77"/>
@@ -11351,10 +11351,10 @@
       <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="243" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="240"/>
+      <c r="C6" s="243"/>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
@@ -11523,11 +11523,11 @@
       <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
@@ -11703,11 +11703,11 @@
       <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="240" t="s">
+      <c r="B23" s="243" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="240"/>
-      <c r="D23" s="240"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="243"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -11753,10 +11753,10 @@
       <c r="F26" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="259" t="s">
+      <c r="G26" s="244" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="260"/>
+      <c r="H26" s="245"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="90">
@@ -11781,8 +11781,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="251"/>
-      <c r="H27" s="252"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="239"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="90">
@@ -11807,8 +11807,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="251"/>
-      <c r="H28" s="252"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="239"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="90">
@@ -11833,8 +11833,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="251"/>
-      <c r="H29" s="252"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="239"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="90">
@@ -11859,8 +11859,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="251"/>
-      <c r="H30" s="252"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="239"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="90"/>
@@ -11881,8 +11881,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="251"/>
-      <c r="H31" s="252"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="239"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="96"/>
@@ -11920,7 +11920,7 @@
       <c r="E34" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="245" t="s">
+      <c r="F34" s="246" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="247"/>
@@ -11939,8 +11939,8 @@
       <c r="E35" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="254"/>
-      <c r="G35" s="255"/>
+      <c r="F35" s="249"/>
+      <c r="G35" s="250"/>
       <c r="H35" s="114"/>
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
@@ -11963,8 +11963,8 @@
       <c r="E36" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="251"/>
-      <c r="G36" s="252"/>
+      <c r="F36" s="238"/>
+      <c r="G36" s="239"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="90">
@@ -11982,8 +11982,8 @@
       <c r="E37" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="251"/>
-      <c r="G37" s="252"/>
+      <c r="F37" s="238"/>
+      <c r="G37" s="239"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="96"/>
@@ -11996,10 +11996,10 @@
       <c r="H38" s="98"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="240" t="s">
+      <c r="B39" s="243" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="240"/>
+      <c r="C39" s="243"/>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
@@ -12023,15 +12023,15 @@
       <c r="B41" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="253" t="s">
+      <c r="C41" s="248" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253" t="s">
+      <c r="D41" s="248"/>
+      <c r="E41" s="248" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="248"/>
       <c r="H41" s="89" t="s">
         <v>180</v>
       </c>
@@ -12043,15 +12043,15 @@
       <c r="B42" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="250" t="s">
+      <c r="C42" s="251" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="250"/>
-      <c r="E42" s="250" t="s">
+      <c r="D42" s="251"/>
+      <c r="E42" s="251" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="250"/>
-      <c r="G42" s="250"/>
+      <c r="F42" s="251"/>
+      <c r="G42" s="251"/>
       <c r="H42" s="99"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -12061,15 +12061,15 @@
       <c r="B43" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="250" t="s">
+      <c r="C43" s="251" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="250"/>
-      <c r="E43" s="250" t="s">
+      <c r="D43" s="251"/>
+      <c r="E43" s="251" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="250"/>
-      <c r="G43" s="250"/>
+      <c r="F43" s="251"/>
+      <c r="G43" s="251"/>
       <c r="H43" s="99"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -12079,15 +12079,15 @@
       <c r="B44" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="250" t="s">
+      <c r="C44" s="251" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250" t="s">
+      <c r="D44" s="251"/>
+      <c r="E44" s="251" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
+      <c r="F44" s="251"/>
+      <c r="G44" s="251"/>
       <c r="H44" s="99"/>
     </row>
     <row r="45" spans="1:12">
@@ -12099,10 +12099,10 @@
       <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="240" t="s">
+      <c r="B46" s="243" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="240"/>
+      <c r="C46" s="243"/>
       <c r="D46" s="84"/>
       <c r="E46" s="84"/>
       <c r="F46" s="84"/>
@@ -12120,25 +12120,25 @@
       <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:12" s="103" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="241" t="s">
+      <c r="A48" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="243" t="s">
+      <c r="B48" s="256" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="245" t="s">
+      <c r="C48" s="246" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="246"/>
-      <c r="E48" s="246"/>
+      <c r="D48" s="258"/>
+      <c r="E48" s="258"/>
       <c r="F48" s="247"/>
-      <c r="G48" s="248" t="s">
+      <c r="G48" s="259" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="248" t="s">
+      <c r="H48" s="259" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="238" t="s">
+      <c r="I48" s="252" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="102"/>
@@ -12146,8 +12146,8 @@
       <c r="L48" s="102"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="242"/>
-      <c r="B49" s="244"/>
+      <c r="A49" s="255"/>
+      <c r="B49" s="257"/>
       <c r="C49" s="104" t="s">
         <v>163</v>
       </c>
@@ -12160,13 +12160,13 @@
       <c r="F49" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G49" s="249"/>
-      <c r="H49" s="249"/>
-      <c r="I49" s="239"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="253"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="242"/>
-      <c r="B50" s="244"/>
+      <c r="A50" s="255"/>
+      <c r="B50" s="257"/>
       <c r="C50" s="118" t="s">
         <v>189</v>
       </c>
@@ -12278,6 +12278,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -12290,26 +12310,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12347,21 +12347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -12526,24 +12511,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12560,4 +12543,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>